--- a/ddeprofit.xlsx
+++ b/ddeprofit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\planilhas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D2B2230-38AD-4983-9B7B-969EB4A0E918}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C8EA84D-1758-4D10-9C22-D2E4097A4F94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
     <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
-    <definedName name="superficie_de_volatilidade_de_dolar" localSheetId="1">base_b3!$A$1:$L$47</definedName>
+    <definedName name="superficie_de_volatilidade_de_dolar" localSheetId="1">base_b3!$A$1:$L$49</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -178,16 +178,16 @@
     <t xml:space="preserve">Ícone     </t>
   </si>
   <si>
-    <t xml:space="preserve">    Atualizado em: 05/09/2025 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                                                                                                                                                               Download do arquivo          </t>
-  </si>
-  <si>
     <t>DOLINDEX</t>
   </si>
   <si>
     <t>GLDFUT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                                                                                                                                                     Download do arquivo                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Atualizado em: 15/09/2025 </t>
   </si>
 </sst>
 </file>
@@ -297,49 +297,49 @@
       <ddeItem name="DI1FUT.ABE" advise="1">
         <values>
           <value>
-            <val>13.98</val>
+            <val>14.02</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="DI1FUT.FEC" advise="1">
         <values>
           <value>
-            <val>13.98</val>
+            <val>14.025</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="DI1FUT.MAX" advise="1">
         <values>
           <value>
-            <val>13.98</val>
+            <val>14.02</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="DI1FUT.MIN" advise="1">
         <values>
           <value>
-            <val>13.88</val>
+            <val>13.965</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="DI1FUT.NEG" advise="1">
         <values>
           <value>
-            <val>25157</val>
+            <val>27939</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="DI1FUT.ULT" advise="1">
         <values>
           <value>
-            <val>13.92</val>
+            <val>13.994999999999999</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="DI1FUT.VAR" advise="1">
         <values>
           <value>
-            <val>-0.42918454935620787</val>
+            <val>-0.21390374331549822</val>
           </value>
         </values>
       </ddeItem>
@@ -353,56 +353,56 @@
       <ddeItem name="DI1FUT.VOL" advise="1">
         <values>
           <value>
-            <val>45836673077</val>
+            <val>39567912973.279999</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="DOLINDEX.ABE" advise="1">
         <values>
           <value>
-            <val>97.871601999999996</val>
+            <val>97.349754000000004</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="DOLINDEX.FEC" advise="1">
         <values>
           <value>
-            <val>97.869862999999995</val>
+            <val>97.346055000000007</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="DOLINDEX.MAX" advise="1">
         <values>
           <value>
-            <val>97.941795999999997</val>
+            <val>97.387407999999994</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="DOLINDEX.MIN" advise="1">
         <values>
           <value>
-            <val>97.830414000000005</val>
+            <val>97.296644000000001</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="DOLINDEX.NEG" advise="1">
         <values>
           <value>
-            <val>873</val>
+            <val>1248</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="DOLINDEX.ULT" advise="1">
         <values>
           <value>
-            <val>97.862052000000006</val>
+            <val>97.308228</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="DOLINDEX.VAR" advise="1">
         <values>
           <value>
-            <val>-7.981006369632837E-3</val>
+            <val>-3.8858277307696198E-2</val>
           </value>
         </values>
       </ddeItem>
@@ -416,56 +416,56 @@
       <ddeItem name="DOLINDEX.VOL" advise="1">
         <values>
           <value>
-            <val>85462.917554</val>
+            <val>121499.580734</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="FRP0.ABE" advise="1">
         <values>
           <value>
-            <val>32.700000000000003</val>
+            <val>20.100000000000001</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="FRP0.FEC" advise="1">
         <values>
           <value>
-            <val>33.800000000000004</val>
+            <val>21.5</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="FRP0.MAX" advise="1">
         <values>
           <value>
-            <val>33.200000000000003</val>
+            <val>21</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="FRP0.MIN" advise="1">
         <values>
           <value>
-            <val>32</val>
+            <val>19.399999999999999</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="FRP0.NEG" advise="1">
         <values>
           <value>
-            <val>98</val>
+            <val>172</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="FRP0.ULT" advise="1">
         <values>
           <value>
-            <val>33.200000000000003</val>
+            <val>20.3</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="FRP0.VAR" advise="1">
         <values>
           <value>
-            <val>-1.7751479289940875</val>
+            <val>-5.581395348837205</val>
           </value>
         </values>
       </ddeItem>
@@ -479,56 +479,56 @@
       <ddeItem name="FRP0.VOL" advise="1">
         <values>
           <value>
-            <val>5104127525</val>
+            <val>10658029650</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="GLDFUT.ABE" advise="1">
         <values>
           <value>
-            <val>3605.25</val>
+            <val>3679.75</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="GLDFUT.FEC" advise="1">
         <values>
           <value>
-            <val>3607.25</val>
+            <val>3680</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="GLDFUT.MAX" advise="1">
         <values>
           <value>
-            <val>3655.25</val>
+            <val>3724.25</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="GLDFUT.MIN" advise="1">
         <values>
           <value>
-            <val>3605.25</val>
+            <val>3675.75</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="GLDFUT.NEG" advise="1">
         <values>
           <value>
-            <val>565</val>
+            <val>245</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="GLDFUT.ULT" advise="1">
         <values>
           <value>
-            <val>3640</val>
+            <val>3718.5</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="GLDFUT.VAR" advise="1">
         <values>
           <value>
-            <val>0.90789382493589699</val>
+            <val>1.0461956521739211</val>
           </value>
         </values>
       </ddeItem>
@@ -542,7 +542,7 @@
       <ddeItem name="GLDFUT.VOL" advise="1">
         <values>
           <value>
-            <val>17649643.23</val>
+            <val>14047504.85</val>
           </value>
         </values>
       </ddeItem>
@@ -550,49 +550,49 @@
       <ddeItem name="USD/BRL.ABE" advise="1">
         <values>
           <value>
-            <val>5.4145000000000003</val>
+            <val>5.3183999999999996</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="USD/BRL.FEC" advise="1">
         <values>
           <value>
-            <val>5.4140500000000005</val>
+            <val>5.3198840000000001</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="USD/BRL.MAX" advise="1">
         <values>
           <value>
-            <val>5.4168000000000003</val>
+            <val>5.3203129999999996</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="USD/BRL.MIN" advise="1">
         <values>
           <value>
-            <val>5.4120619999999997</val>
+            <val>5.3151000000000002</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="USD/BRL.NEG" advise="1">
         <values>
           <value>
-            <val>54</val>
+            <val>62</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="USD/BRL.ULT" advise="1">
         <values>
           <value>
-            <val>5.4131999999999998</val>
+            <val>5.3169000000000004</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="USD/BRL.VAR" advise="1">
         <values>
           <value>
-            <val>-1.5699891947818401E-2</val>
+            <val>-5.6091448610530392E-2</val>
           </value>
         </values>
       </ddeItem>
@@ -606,56 +606,49 @@
       <ddeItem name="USD/BRL.VOL" advise="1">
         <values>
           <value>
-            <val>292.34530000000001</val>
+            <val>329.66407500000003</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="WDOFUT.ABE" advise="1">
         <values>
           <value>
-            <val>5463.5</val>
-          </value>
-        </values>
-      </ddeItem>
-      <ddeItem name="WDOFUT.FEC" advise="1">
-        <values>
-          <value>
-            <val>5480.5</val>
+            <val>5369.5</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="WDOFUT.MAX" advise="1">
         <values>
           <value>
-            <val>5472.5</val>
+            <val>5371.5</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="WDOFUT.MIN" advise="1">
         <values>
           <value>
-            <val>5415</val>
+            <val>5329</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="WDOFUT.NEG" advise="1">
         <values>
           <value>
-            <val>716658</val>
+            <val>560400</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="WDOFUT.ULT" advise="1">
         <values>
           <value>
-            <val>5444</val>
+            <val>5337.5</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="WDOFUT.VAR" advise="1">
         <values>
           <value>
-            <val>-0.66599762795365791</val>
+            <val>-0.6144679266362516</val>
           </value>
         </values>
       </ddeItem>
@@ -669,7 +662,7 @@
       <ddeItem name="WDOFUT.VOL" advise="1">
         <values>
           <value>
-            <val>156130663125</val>
+            <val>128215414810</val>
           </value>
         </values>
       </ddeItem>
@@ -982,7 +975,7 @@
   <dimension ref="J1:S7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="Q13" sqref="Q13"/>
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1031,35 +1024,35 @@
       </c>
       <c r="K2" cm="1">
         <f t="array" ref="K2">[1]!DI1FUT.ULT</f>
-        <v>13.92</v>
+        <v>13.994999999999999</v>
       </c>
       <c r="L2" cm="1">
         <f t="array" ref="L2">[1]!DI1FUT.ABE</f>
-        <v>13.98</v>
+        <v>14.02</v>
       </c>
       <c r="M2" cm="1">
         <f t="array" ref="M2">[1]!DI1FUT.MAX</f>
-        <v>13.98</v>
+        <v>14.02</v>
       </c>
       <c r="N2" cm="1">
         <f t="array" ref="N2">[1]!DI1FUT.MIN</f>
-        <v>13.88</v>
+        <v>13.965</v>
       </c>
       <c r="O2" cm="1">
         <f t="array" ref="O2">[1]!DI1FUT.FEC</f>
-        <v>13.98</v>
+        <v>14.025</v>
       </c>
       <c r="P2" cm="1">
         <f t="array" ref="P2">[1]!DI1FUT.VAR</f>
-        <v>-0.42918454935620787</v>
+        <v>-0.21390374331549822</v>
       </c>
       <c r="Q2" cm="1">
         <f t="array" ref="Q2">[1]!DI1FUT.NEG</f>
-        <v>25157</v>
+        <v>27939</v>
       </c>
       <c r="R2" cm="1">
         <f t="array" ref="R2">[1]!DI1FUT.VOL</f>
-        <v>45836673077</v>
+        <v>39567912973.279999</v>
       </c>
       <c r="S2" t="str" cm="1">
         <f t="array" ref="S2">[1]!DI1FUT.VEN</f>
@@ -1072,35 +1065,35 @@
       </c>
       <c r="K3" cm="1">
         <f t="array" ref="K3">[1]!FRP0.ULT</f>
-        <v>33.200000000000003</v>
+        <v>20.3</v>
       </c>
       <c r="L3" cm="1">
         <f t="array" ref="L3">[1]!FRP0.ABE</f>
-        <v>32.700000000000003</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="M3" cm="1">
         <f t="array" ref="M3">[1]!FRP0.MAX</f>
-        <v>33.200000000000003</v>
+        <v>21</v>
       </c>
       <c r="N3" cm="1">
         <f t="array" ref="N3">[1]!FRP0.MIN</f>
-        <v>32</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="O3" cm="1">
         <f t="array" ref="O3">[1]!FRP0.FEC</f>
-        <v>33.800000000000004</v>
+        <v>21.5</v>
       </c>
       <c r="P3" cm="1">
         <f t="array" ref="P3">[1]!FRP0.VAR</f>
-        <v>-1.7751479289940875</v>
+        <v>-5.581395348837205</v>
       </c>
       <c r="Q3" cm="1">
         <f t="array" ref="Q3">[1]!FRP0.NEG</f>
-        <v>98</v>
+        <v>172</v>
       </c>
       <c r="R3" cm="1">
         <f t="array" ref="R3">[1]!FRP0.VOL</f>
-        <v>5104127525</v>
+        <v>10658029650</v>
       </c>
       <c r="S3" t="str" cm="1">
         <f t="array" ref="S3">[1]!FRP0.VEN</f>
@@ -1113,35 +1106,35 @@
       </c>
       <c r="K4" cm="1">
         <f t="array" ref="K4">[1]!'USD/BRL.ULT'</f>
-        <v>5.4131999999999998</v>
+        <v>5.3169000000000004</v>
       </c>
       <c r="L4" cm="1">
         <f t="array" ref="L4">[1]!'USD/BRL.ABE'</f>
-        <v>5.4145000000000003</v>
+        <v>5.3183999999999996</v>
       </c>
       <c r="M4" cm="1">
         <f t="array" ref="M4">[1]!'USD/BRL.MAX'</f>
-        <v>5.4168000000000003</v>
+        <v>5.3203129999999996</v>
       </c>
       <c r="N4" cm="1">
         <f t="array" ref="N4">[1]!'USD/BRL.MIN'</f>
-        <v>5.4120619999999997</v>
+        <v>5.3151000000000002</v>
       </c>
       <c r="O4" cm="1">
         <f t="array" ref="O4">[1]!'USD/BRL.FEC'</f>
-        <v>5.4140500000000005</v>
+        <v>5.3198840000000001</v>
       </c>
       <c r="P4" cm="1">
         <f t="array" ref="P4">[1]!'USD/BRL.VAR'</f>
-        <v>-1.5699891947818401E-2</v>
+        <v>-5.6091448610530392E-2</v>
       </c>
       <c r="Q4" cm="1">
         <f t="array" ref="Q4">[1]!'USD/BRL.NEG'</f>
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="R4" cm="1">
         <f t="array" ref="R4">[1]!'USD/BRL.VOL'</f>
-        <v>292.34530000000001</v>
+        <v>329.66407500000003</v>
       </c>
       <c r="S4" t="str" cm="1">
         <f t="array" ref="S4">[1]!'USD/BRL.VEN'</f>
@@ -1154,35 +1147,34 @@
       </c>
       <c r="K5" cm="1">
         <f t="array" ref="K5">[1]!WDOFUT.ULT</f>
-        <v>5444</v>
+        <v>5337.5</v>
       </c>
       <c r="L5" cm="1">
         <f t="array" ref="L5">[1]!WDOFUT.ABE</f>
-        <v>5463.5</v>
+        <v>5369.5</v>
       </c>
       <c r="M5" cm="1">
         <f t="array" ref="M5">[1]!WDOFUT.MAX</f>
-        <v>5472.5</v>
+        <v>5371.5</v>
       </c>
       <c r="N5" cm="1">
         <f t="array" ref="N5">[1]!WDOFUT.MIN</f>
-        <v>5415</v>
-      </c>
-      <c r="O5" cm="1">
-        <f t="array" ref="O5">[1]!WDOFUT.FEC</f>
-        <v>5480.5</v>
+        <v>5329</v>
+      </c>
+      <c r="O5">
+        <v>5337.5</v>
       </c>
       <c r="P5" cm="1">
         <f t="array" ref="P5">[1]!WDOFUT.VAR</f>
-        <v>-0.66599762795365791</v>
+        <v>-0.6144679266362516</v>
       </c>
       <c r="Q5" cm="1">
         <f t="array" ref="Q5">[1]!WDOFUT.NEG</f>
-        <v>716658</v>
+        <v>560400</v>
       </c>
       <c r="R5" cm="1">
         <f t="array" ref="R5">[1]!WDOFUT.VOL</f>
-        <v>156130663125</v>
+        <v>128215414810</v>
       </c>
       <c r="S5" t="str" cm="1">
         <f t="array" ref="S5">[1]!WDOFUT.VEN</f>
@@ -1191,39 +1183,39 @@
     </row>
     <row r="6" spans="10:19" x14ac:dyDescent="0.25">
       <c r="J6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K6" cm="1">
         <f t="array" ref="K6">[1]!DOLINDEX.ULT</f>
-        <v>97.862052000000006</v>
+        <v>97.308228</v>
       </c>
       <c r="L6" cm="1">
         <f t="array" ref="L6">[1]!DOLINDEX.ABE</f>
-        <v>97.871601999999996</v>
+        <v>97.349754000000004</v>
       </c>
       <c r="M6" cm="1">
         <f t="array" ref="M6">[1]!DOLINDEX.MAX</f>
-        <v>97.941795999999997</v>
+        <v>97.387407999999994</v>
       </c>
       <c r="N6" cm="1">
         <f t="array" ref="N6">[1]!DOLINDEX.MIN</f>
-        <v>97.830414000000005</v>
+        <v>97.296644000000001</v>
       </c>
       <c r="O6" cm="1">
         <f t="array" ref="O6">[1]!DOLINDEX.FEC</f>
-        <v>97.869862999999995</v>
+        <v>97.346055000000007</v>
       </c>
       <c r="P6" cm="1">
         <f t="array" ref="P6">[1]!DOLINDEX.VAR</f>
-        <v>-7.981006369632837E-3</v>
+        <v>-3.8858277307696198E-2</v>
       </c>
       <c r="Q6" cm="1">
         <f t="array" ref="Q6">[1]!DOLINDEX.NEG</f>
-        <v>873</v>
+        <v>1248</v>
       </c>
       <c r="R6" cm="1">
         <f t="array" ref="R6">[1]!DOLINDEX.VOL</f>
-        <v>85462.917554</v>
+        <v>121499.580734</v>
       </c>
       <c r="S6" t="str" cm="1">
         <f t="array" ref="S6">[1]!DOLINDEX.VEN</f>
@@ -1232,39 +1224,39 @@
     </row>
     <row r="7" spans="10:19" x14ac:dyDescent="0.25">
       <c r="J7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K7" cm="1">
         <f t="array" ref="K7">[1]!GLDFUT.ULT</f>
-        <v>3640</v>
+        <v>3718.5</v>
       </c>
       <c r="L7" cm="1">
         <f t="array" ref="L7">[1]!GLDFUT.ABE</f>
-        <v>3605.25</v>
+        <v>3679.75</v>
       </c>
       <c r="M7" cm="1">
         <f t="array" ref="M7">[1]!GLDFUT.MAX</f>
-        <v>3655.25</v>
+        <v>3724.25</v>
       </c>
       <c r="N7" cm="1">
         <f t="array" ref="N7">[1]!GLDFUT.MIN</f>
-        <v>3605.25</v>
+        <v>3675.75</v>
       </c>
       <c r="O7" cm="1">
         <f t="array" ref="O7">[1]!GLDFUT.FEC</f>
-        <v>3607.25</v>
+        <v>3680</v>
       </c>
       <c r="P7" cm="1">
         <f t="array" ref="P7">[1]!GLDFUT.VAR</f>
-        <v>0.90789382493589699</v>
+        <v>1.0461956521739211</v>
       </c>
       <c r="Q7" cm="1">
         <f t="array" ref="Q7">[1]!GLDFUT.NEG</f>
-        <v>565</v>
+        <v>245</v>
       </c>
       <c r="R7" cm="1">
         <f t="array" ref="R7">[1]!GLDFUT.VOL</f>
-        <v>17649643.23</v>
+        <v>14047504.85</v>
       </c>
       <c r="S7" t="str" cm="1">
         <f t="array" ref="S7">[1]!GLDFUT.VEN</f>
@@ -1279,7 +1271,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Planilha10"/>
-  <dimension ref="A1:L47"/>
+  <dimension ref="A1:L49"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="R6" sqref="R6"/>
@@ -1287,7 +1279,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.28515625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11" style="5" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" style="5" customWidth="1"/>
     <col min="2" max="12" width="9.140625" style="5" customWidth="1"/>
     <col min="13" max="16384" width="10.28515625" style="5"/>
   </cols>
@@ -1372,7 +1364,7 @@
     </row>
     <row r="17" spans="1:12" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -1418,37 +1410,37 @@
         <v>45931</v>
       </c>
       <c r="B19" s="4">
-        <v>17.55</v>
+        <v>16.559999999999999</v>
       </c>
       <c r="C19" s="4">
-        <v>15.99</v>
+        <v>14.7</v>
       </c>
       <c r="D19" s="4">
-        <v>14.58</v>
+        <v>13.1</v>
       </c>
       <c r="E19" s="4">
-        <v>12.76</v>
+        <v>11.26</v>
       </c>
       <c r="F19" s="4">
-        <v>11.76</v>
+        <v>10.35</v>
       </c>
       <c r="G19" s="4">
-        <v>11.05</v>
+        <v>9.7100000000000009</v>
       </c>
       <c r="H19" s="4">
-        <v>10.54</v>
+        <v>9.24</v>
       </c>
       <c r="I19" s="4">
-        <v>10.029999999999999</v>
+        <v>8.7799999999999994</v>
       </c>
       <c r="J19" s="4">
-        <v>9.7200000000000006</v>
+        <v>8.49</v>
       </c>
       <c r="K19" s="4">
-        <v>10.06</v>
+        <v>8.98</v>
       </c>
       <c r="L19" s="4">
-        <v>10.64</v>
+        <v>9.77</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -1456,37 +1448,37 @@
         <v>45962</v>
       </c>
       <c r="B20" s="4">
-        <v>16.809999999999999</v>
+        <v>16.079999999999998</v>
       </c>
       <c r="C20" s="4">
-        <v>16.239999999999998</v>
+        <v>15.54</v>
       </c>
       <c r="D20" s="4">
-        <v>15.56</v>
+        <v>14.89</v>
       </c>
       <c r="E20" s="4">
-        <v>13.77</v>
+        <v>13.06</v>
       </c>
       <c r="F20" s="4">
-        <v>12.61</v>
+        <v>11.9</v>
       </c>
       <c r="G20" s="4">
-        <v>11.62</v>
+        <v>10.91</v>
       </c>
       <c r="H20" s="4">
-        <v>10.91</v>
+        <v>10.19</v>
       </c>
       <c r="I20" s="4">
-        <v>10.5</v>
+        <v>9.76</v>
       </c>
       <c r="J20" s="4">
-        <v>10.33</v>
+        <v>9.6199999999999992</v>
       </c>
       <c r="K20" s="4">
-        <v>10.36</v>
+        <v>9.6199999999999992</v>
       </c>
       <c r="L20" s="4">
-        <v>10.41</v>
+        <v>9.6199999999999992</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -1494,37 +1486,37 @@
         <v>45992</v>
       </c>
       <c r="B21" s="4">
-        <v>17.329999999999998</v>
+        <v>16.82</v>
       </c>
       <c r="C21" s="4">
-        <v>16.73</v>
+        <v>16.170000000000002</v>
       </c>
       <c r="D21" s="4">
-        <v>16.02</v>
+        <v>15.44</v>
       </c>
       <c r="E21" s="4">
-        <v>14.17</v>
+        <v>13.63</v>
       </c>
       <c r="F21" s="4">
-        <v>12.97</v>
+        <v>12.25</v>
       </c>
       <c r="G21" s="4">
-        <v>12.06</v>
+        <v>11.5</v>
       </c>
       <c r="H21" s="4">
-        <v>11.52</v>
+        <v>10.97</v>
       </c>
       <c r="I21" s="4">
-        <v>11</v>
+        <v>10.44</v>
       </c>
       <c r="J21" s="4">
-        <v>10.68</v>
+        <v>10.16</v>
       </c>
       <c r="K21" s="4">
-        <v>10.75</v>
+        <v>10.210000000000001</v>
       </c>
       <c r="L21" s="4">
-        <v>10.87</v>
+        <v>10.3</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -1532,37 +1524,37 @@
         <v>46023</v>
       </c>
       <c r="B22" s="4">
-        <v>17.89</v>
+        <v>17.5</v>
       </c>
       <c r="C22" s="4">
-        <v>17.14</v>
+        <v>16.78</v>
       </c>
       <c r="D22" s="4">
-        <v>16.329999999999998</v>
+        <v>15.97</v>
       </c>
       <c r="E22" s="4">
-        <v>14.53</v>
+        <v>14.07</v>
       </c>
       <c r="F22" s="4">
-        <v>13.28</v>
+        <v>12.64</v>
       </c>
       <c r="G22" s="4">
-        <v>12.36</v>
+        <v>11.88</v>
       </c>
       <c r="H22" s="4">
-        <v>11.84</v>
+        <v>11.36</v>
       </c>
       <c r="I22" s="4">
-        <v>11.34</v>
+        <v>10.86</v>
       </c>
       <c r="J22" s="4">
-        <v>11.11</v>
+        <v>10.72</v>
       </c>
       <c r="K22" s="4">
-        <v>11.21</v>
+        <v>10.82</v>
       </c>
       <c r="L22" s="4">
-        <v>11.39</v>
+        <v>10.98</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -1570,37 +1562,37 @@
         <v>46054</v>
       </c>
       <c r="B23" s="4">
-        <v>18.23</v>
+        <v>17.96</v>
       </c>
       <c r="C23" s="4">
-        <v>17.43</v>
+        <v>17.16</v>
       </c>
       <c r="D23" s="4">
-        <v>16.579999999999998</v>
+        <v>16.3</v>
       </c>
       <c r="E23" s="4">
-        <v>14.88</v>
+        <v>14.5</v>
       </c>
       <c r="F23" s="4">
-        <v>13.63</v>
+        <v>13.22</v>
       </c>
       <c r="G23" s="4">
-        <v>12.71</v>
+        <v>12.18</v>
       </c>
       <c r="H23" s="4">
-        <v>12.2</v>
+        <v>11.49</v>
       </c>
       <c r="I23" s="4">
-        <v>11.7</v>
+        <v>11.17</v>
       </c>
       <c r="J23" s="4">
-        <v>11.43</v>
+        <v>11.17</v>
       </c>
       <c r="K23" s="4">
-        <v>11.53</v>
+        <v>11.27</v>
       </c>
       <c r="L23" s="4">
-        <v>11.68</v>
+        <v>11.44</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -1608,37 +1600,37 @@
         <v>46082</v>
       </c>
       <c r="B24" s="4">
-        <v>18.47</v>
+        <v>18.22</v>
       </c>
       <c r="C24" s="4">
-        <v>17.84</v>
+        <v>17.510000000000002</v>
       </c>
       <c r="D24" s="4">
-        <v>17.09</v>
+        <v>16.7</v>
       </c>
       <c r="E24" s="4">
-        <v>15.14</v>
+        <v>14.79</v>
       </c>
       <c r="F24" s="4">
-        <v>13.9</v>
+        <v>13.36</v>
       </c>
       <c r="G24" s="4">
-        <v>12.96</v>
+        <v>12.59</v>
       </c>
       <c r="H24" s="4">
-        <v>12.16</v>
+        <v>12.08</v>
       </c>
       <c r="I24" s="4">
-        <v>11.81</v>
+        <v>11.59</v>
       </c>
       <c r="J24" s="4">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="K24" s="4">
-        <v>11.82</v>
+        <v>11.59</v>
       </c>
       <c r="L24" s="4">
-        <v>11.93</v>
+        <v>11.73</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -1646,37 +1638,37 @@
         <v>46113</v>
       </c>
       <c r="B25" s="4">
-        <v>18.829999999999998</v>
+        <v>18.63</v>
       </c>
       <c r="C25" s="4">
-        <v>18.13</v>
+        <v>17.93</v>
       </c>
       <c r="D25" s="4">
-        <v>17.309999999999999</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="E25" s="4">
-        <v>15.23</v>
+        <v>14.91</v>
       </c>
       <c r="F25" s="4">
-        <v>14.29</v>
+        <v>13.96</v>
       </c>
       <c r="G25" s="4">
-        <v>13.27</v>
+        <v>12.94</v>
       </c>
       <c r="H25" s="4">
-        <v>12.85</v>
+        <v>12.53</v>
       </c>
       <c r="I25" s="4">
-        <v>12.35</v>
+        <v>12.04</v>
       </c>
       <c r="J25" s="4">
-        <v>12.14</v>
+        <v>11.99</v>
       </c>
       <c r="K25" s="4">
-        <v>12.23</v>
+        <v>12.08</v>
       </c>
       <c r="L25" s="4">
-        <v>12.36</v>
+        <v>12.21</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -1684,37 +1676,37 @@
         <v>46143</v>
       </c>
       <c r="B26" s="4">
-        <v>18.989999999999998</v>
+        <v>18.829999999999998</v>
       </c>
       <c r="C26" s="4">
-        <v>18.37</v>
+        <v>18.190000000000001</v>
       </c>
       <c r="D26" s="4">
-        <v>17.649999999999999</v>
+        <v>17.440000000000001</v>
       </c>
       <c r="E26" s="4">
-        <v>15.75</v>
+        <v>15.49</v>
       </c>
       <c r="F26" s="4">
-        <v>14.54</v>
+        <v>14.25</v>
       </c>
       <c r="G26" s="4">
-        <v>13.54</v>
+        <v>13.35</v>
       </c>
       <c r="H26" s="4">
-        <v>12.85</v>
+        <v>12.58</v>
       </c>
       <c r="I26" s="4">
-        <v>12.63</v>
+        <v>12.26</v>
       </c>
       <c r="J26" s="4">
-        <v>12.44</v>
+        <v>12.3</v>
       </c>
       <c r="K26" s="4">
+        <v>12.39</v>
+      </c>
+      <c r="L26" s="4">
         <v>12.51</v>
-      </c>
-      <c r="L26" s="4">
-        <v>12.62</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -1722,37 +1714,37 @@
         <v>46174</v>
       </c>
       <c r="B27" s="4">
-        <v>19.23</v>
+        <v>19.149999999999999</v>
       </c>
       <c r="C27" s="4">
-        <v>18.649999999999999</v>
+        <v>18.52</v>
       </c>
       <c r="D27" s="4">
-        <v>17.93</v>
+        <v>17.79</v>
       </c>
       <c r="E27" s="4">
-        <v>15.79</v>
+        <v>15.91</v>
       </c>
       <c r="F27" s="4">
-        <v>14.72</v>
+        <v>14.54</v>
       </c>
       <c r="G27" s="4">
-        <v>13.98</v>
+        <v>13.7</v>
       </c>
       <c r="H27" s="4">
-        <v>13.48</v>
+        <v>13.02</v>
       </c>
       <c r="I27" s="4">
-        <v>12.93</v>
+        <v>12.68</v>
       </c>
       <c r="J27" s="4">
-        <v>12.62</v>
+        <v>12.68</v>
       </c>
       <c r="K27" s="4">
-        <v>12.7</v>
+        <v>12.74</v>
       </c>
       <c r="L27" s="4">
-        <v>12.84</v>
+        <v>12.83</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -1760,37 +1752,37 @@
         <v>46204</v>
       </c>
       <c r="B28" s="4">
-        <v>19.420000000000002</v>
+        <v>19.32</v>
       </c>
       <c r="C28" s="4">
-        <v>18.72</v>
+        <v>18.61</v>
       </c>
       <c r="D28" s="4">
-        <v>17.899999999999999</v>
+        <v>17.77</v>
       </c>
       <c r="E28" s="4">
-        <v>15.79</v>
+        <v>15.57</v>
       </c>
       <c r="F28" s="4">
-        <v>14.87</v>
+        <v>14.49</v>
       </c>
       <c r="G28" s="4">
-        <v>13.97</v>
+        <v>13.75</v>
       </c>
       <c r="H28" s="4">
-        <v>13.48</v>
+        <v>13.26</v>
       </c>
       <c r="I28" s="4">
-        <v>13.04</v>
+        <v>12.81</v>
       </c>
       <c r="J28" s="4">
-        <v>12.94</v>
+        <v>12.88</v>
       </c>
       <c r="K28" s="4">
-        <v>13.04</v>
+        <v>13</v>
       </c>
       <c r="L28" s="4">
-        <v>13.2</v>
+        <v>13.16</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -1798,515 +1790,535 @@
         <v>46235</v>
       </c>
       <c r="B29" s="4">
-        <v>19.579999999999998</v>
+        <v>19.5</v>
       </c>
       <c r="C29" s="4">
-        <v>18.89</v>
+        <v>18.77</v>
       </c>
       <c r="D29" s="4">
-        <v>18.079999999999998</v>
+        <v>17.96</v>
       </c>
       <c r="E29" s="4">
-        <v>15.98</v>
+        <v>16.07</v>
       </c>
       <c r="F29" s="4">
-        <v>15.05</v>
+        <v>14.69</v>
       </c>
       <c r="G29" s="4">
-        <v>14.15</v>
+        <v>13.93</v>
       </c>
       <c r="H29" s="4">
-        <v>13.67</v>
+        <v>13.45</v>
       </c>
       <c r="I29" s="4">
-        <v>13.22</v>
+        <v>13.01</v>
       </c>
       <c r="J29" s="4">
-        <v>13.12</v>
+        <v>13.08</v>
       </c>
       <c r="K29" s="4">
-        <v>13.22</v>
+        <v>13.2</v>
       </c>
       <c r="L29" s="4">
-        <v>13.37</v>
+        <v>13.35</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
-        <v>46296</v>
+        <v>46266</v>
       </c>
       <c r="B30" s="4">
-        <v>19.739999999999998</v>
+        <v>19.61</v>
       </c>
       <c r="C30" s="4">
-        <v>19.11</v>
+        <v>18.96</v>
       </c>
       <c r="D30" s="4">
-        <v>18.350000000000001</v>
+        <v>18.190000000000001</v>
       </c>
       <c r="E30" s="4">
-        <v>16.239999999999998</v>
+        <v>16.28</v>
       </c>
       <c r="F30" s="4">
-        <v>15.34</v>
+        <v>15.05</v>
       </c>
       <c r="G30" s="4">
-        <v>14.35</v>
+        <v>14.16</v>
       </c>
       <c r="H30" s="4">
         <v>13.67</v>
       </c>
       <c r="I30" s="4">
-        <v>13.43</v>
+        <v>13.15</v>
       </c>
       <c r="J30" s="4">
-        <v>13.2</v>
+        <v>13.18</v>
       </c>
       <c r="K30" s="4">
-        <v>13.29</v>
+        <v>13.27</v>
       </c>
       <c r="L30" s="4">
-        <v>13.45</v>
+        <v>13.39</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
-        <v>46357</v>
+        <v>46296</v>
       </c>
       <c r="B31" s="4">
-        <v>20.100000000000001</v>
+        <v>19.71</v>
       </c>
       <c r="C31" s="4">
-        <v>19.46</v>
+        <v>19.07</v>
       </c>
       <c r="D31" s="4">
-        <v>18.71</v>
+        <v>18.28</v>
       </c>
       <c r="E31" s="4">
-        <v>16.829999999999998</v>
+        <v>16.059999999999999</v>
       </c>
       <c r="F31" s="4">
-        <v>15.62</v>
+        <v>15</v>
       </c>
       <c r="G31" s="4">
-        <v>14.73</v>
+        <v>14.25</v>
       </c>
       <c r="H31" s="4">
-        <v>14.01</v>
+        <v>13.77</v>
       </c>
       <c r="I31" s="4">
-        <v>13.75</v>
+        <v>13.24</v>
       </c>
       <c r="J31" s="4">
-        <v>13.79</v>
+        <v>13.29</v>
       </c>
       <c r="K31" s="4">
-        <v>13.89</v>
+        <v>13.38</v>
       </c>
       <c r="L31" s="4">
-        <v>14.04</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
-        <v>46388</v>
+        <v>46357</v>
       </c>
       <c r="B32" s="4">
-        <v>20.27</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="C32" s="4">
-        <v>19.61</v>
+        <v>19.46</v>
       </c>
       <c r="D32" s="4">
-        <v>18.84</v>
+        <v>18.71</v>
       </c>
       <c r="E32" s="4">
-        <v>16.989999999999998</v>
+        <v>16.829999999999998</v>
       </c>
       <c r="F32" s="4">
-        <v>15.79</v>
+        <v>15.44</v>
       </c>
       <c r="G32" s="4">
-        <v>14.87</v>
+        <v>14.73</v>
       </c>
       <c r="H32" s="4">
-        <v>14.41</v>
+        <v>14.27</v>
       </c>
       <c r="I32" s="4">
-        <v>13.99</v>
+        <v>13.75</v>
       </c>
       <c r="J32" s="4">
-        <v>13.97</v>
+        <v>13.77</v>
       </c>
       <c r="K32" s="4">
+        <v>13.88</v>
+      </c>
+      <c r="L32" s="4">
         <v>14.04</v>
-      </c>
-      <c r="L32" s="4">
-        <v>14.15</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
-        <v>46478</v>
+        <v>46388</v>
       </c>
       <c r="B33" s="4">
-        <v>21.12</v>
+        <v>20.25</v>
       </c>
       <c r="C33" s="4">
-        <v>20.440000000000001</v>
+        <v>20.04</v>
       </c>
       <c r="D33" s="4">
         <v>19.66</v>
       </c>
       <c r="E33" s="4">
-        <v>17.68</v>
+        <v>16.52</v>
       </c>
       <c r="F33" s="4">
-        <v>16.43</v>
+        <v>15.44</v>
       </c>
       <c r="G33" s="4">
-        <v>15.48</v>
+        <v>14.69</v>
       </c>
       <c r="H33" s="4">
-        <v>14.76</v>
+        <v>14.23</v>
       </c>
       <c r="I33" s="4">
-        <v>14.51</v>
+        <v>13.81</v>
       </c>
       <c r="J33" s="4">
-        <v>14.53</v>
+        <v>13.98</v>
       </c>
       <c r="K33" s="4">
-        <v>14.65</v>
+        <v>14.08</v>
       </c>
       <c r="L33" s="4">
-        <v>14.83</v>
+        <v>14.19</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
-        <v>46569</v>
+        <v>46478</v>
       </c>
       <c r="B34" s="4">
-        <v>20.97</v>
+        <v>21.12</v>
       </c>
       <c r="C34" s="4">
-        <v>20.329999999999998</v>
+        <v>20.440000000000001</v>
       </c>
       <c r="D34" s="4">
-        <v>19.57</v>
+        <v>19.66</v>
       </c>
       <c r="E34" s="4">
-        <v>17.61</v>
+        <v>17.68</v>
       </c>
       <c r="F34" s="4">
-        <v>16.36</v>
+        <v>16.43</v>
       </c>
       <c r="G34" s="4">
-        <v>15.35</v>
+        <v>15.41</v>
       </c>
       <c r="H34" s="4">
-        <v>14.67</v>
+        <v>14.76</v>
       </c>
       <c r="I34" s="4">
-        <v>14.35</v>
+        <v>14.4</v>
       </c>
       <c r="J34" s="4">
-        <v>14.37</v>
+        <v>14.55</v>
       </c>
       <c r="K34" s="4">
-        <v>14.46</v>
+        <v>14.68</v>
       </c>
       <c r="L34" s="4">
-        <v>14.6</v>
+        <v>14.83</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
-        <v>46600</v>
+        <v>46569</v>
       </c>
       <c r="B35" s="1">
-        <v>21.38</v>
+        <v>21.07</v>
       </c>
       <c r="C35" s="1">
-        <v>20.71</v>
+        <v>20.58</v>
       </c>
       <c r="D35" s="1">
-        <v>19.920000000000002</v>
+        <v>19.91</v>
       </c>
       <c r="E35" s="1">
-        <v>17.88</v>
+        <v>17.27</v>
       </c>
       <c r="F35" s="1">
-        <v>16.48</v>
+        <v>16.16</v>
       </c>
       <c r="G35" s="1">
-        <v>15.64</v>
+        <v>15.38</v>
       </c>
       <c r="H35" s="1">
-        <v>15.17</v>
+        <v>14.91</v>
       </c>
       <c r="I35" s="1">
-        <v>14.65</v>
+        <v>14.4</v>
       </c>
       <c r="J35" s="1">
-        <v>14.6</v>
+        <v>14.55</v>
       </c>
       <c r="K35" s="1">
-        <v>14.72</v>
+        <v>14.68</v>
       </c>
       <c r="L35" s="1">
-        <v>14.92</v>
+        <v>14.82</v>
       </c>
     </row>
     <row r="36" spans="1:12" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
-        <v>46661</v>
+        <v>46600</v>
       </c>
       <c r="B36" s="1">
-        <v>22.07</v>
+        <v>21.44</v>
       </c>
       <c r="C36" s="1">
-        <v>21.35</v>
+        <v>20.77</v>
       </c>
       <c r="D36" s="1">
-        <v>20.51</v>
+        <v>19.940000000000001</v>
       </c>
       <c r="E36" s="1">
-        <v>18.34</v>
+        <v>17.54</v>
       </c>
       <c r="F36" s="1">
-        <v>16.989999999999998</v>
+        <v>16.45</v>
       </c>
       <c r="G36" s="1">
-        <v>15.91</v>
+        <v>15.61</v>
       </c>
       <c r="H36" s="1">
         <v>15.52</v>
       </c>
       <c r="I36" s="1">
-        <v>14.96</v>
+        <v>14.62</v>
       </c>
       <c r="J36" s="1">
-        <v>15.11</v>
+        <v>14.75</v>
       </c>
       <c r="K36" s="1">
-        <v>15.26</v>
+        <v>14.89</v>
       </c>
       <c r="L36" s="1">
-        <v>15.45</v>
+        <v>15.06</v>
       </c>
     </row>
     <row r="37" spans="1:12" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
-        <v>46753</v>
+        <v>46661</v>
       </c>
       <c r="B37" s="1">
-        <v>21.49</v>
+        <v>22.07</v>
       </c>
       <c r="C37" s="1">
-        <v>20.81</v>
+        <v>21.36</v>
       </c>
       <c r="D37" s="1">
-        <v>20.03</v>
+        <v>20.48</v>
       </c>
       <c r="E37" s="1">
         <v>17.98</v>
       </c>
       <c r="F37" s="1">
-        <v>16.68</v>
+        <v>16.940000000000001</v>
       </c>
       <c r="G37" s="1">
-        <v>15.62</v>
+        <v>15.98</v>
       </c>
       <c r="H37" s="1">
-        <v>14.93</v>
+        <v>15.52</v>
       </c>
       <c r="I37" s="1">
-        <v>14.6</v>
+        <v>14.96</v>
       </c>
       <c r="J37" s="1">
-        <v>14.63</v>
+        <v>15.09</v>
       </c>
       <c r="K37" s="1">
-        <v>14.72</v>
+        <v>15.24</v>
       </c>
       <c r="L37" s="1">
-        <v>14.87</v>
+        <v>15.45</v>
       </c>
     </row>
     <row r="38" spans="1:12" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
-        <v>46935</v>
+        <v>46753</v>
       </c>
       <c r="B38" s="1">
-        <v>21.64</v>
+        <v>21.55</v>
       </c>
       <c r="C38" s="1">
-        <v>20.96</v>
+        <v>20.83</v>
       </c>
       <c r="D38" s="1">
-        <v>20.16</v>
+        <v>20</v>
       </c>
       <c r="E38" s="1">
-        <v>18.079999999999998</v>
+        <v>17.95</v>
       </c>
       <c r="F38" s="1">
-        <v>16.77</v>
+        <v>16.64</v>
       </c>
       <c r="G38" s="1">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="H38" s="1">
-        <v>15.3</v>
+        <v>15.22</v>
       </c>
       <c r="I38" s="1">
-        <v>14.67</v>
+        <v>14.68</v>
       </c>
       <c r="J38" s="1">
-        <v>14.71</v>
+        <v>14.94</v>
       </c>
       <c r="K38" s="1">
-        <v>14.81</v>
+        <v>15.05</v>
       </c>
       <c r="L38" s="1">
-        <v>14.96</v>
+        <v>15.14</v>
       </c>
     </row>
     <row r="39" spans="1:12" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
-        <v>47119</v>
+        <v>46935</v>
       </c>
       <c r="B39" s="1">
-        <v>21.76</v>
+        <v>21.64</v>
       </c>
       <c r="C39" s="1">
-        <v>21.07</v>
+        <v>20.92</v>
       </c>
       <c r="D39" s="1">
-        <v>20.260000000000002</v>
+        <v>20.09</v>
       </c>
       <c r="E39" s="1">
-        <v>18.16</v>
+        <v>18.04</v>
       </c>
       <c r="F39" s="1">
-        <v>16.84</v>
+        <v>16.73</v>
       </c>
       <c r="G39" s="1">
-        <v>15.76</v>
+        <v>15.68</v>
       </c>
       <c r="H39" s="1">
-        <v>15.05</v>
+        <v>15.03</v>
       </c>
       <c r="I39" s="1">
-        <v>14.73</v>
+        <v>14.77</v>
       </c>
       <c r="J39" s="1">
-        <v>14.76</v>
+        <v>15</v>
       </c>
       <c r="K39" s="1">
-        <v>14.87</v>
+        <v>15.11</v>
       </c>
       <c r="L39" s="1">
-        <v>15.02</v>
+        <v>15.22</v>
       </c>
     </row>
     <row r="40" spans="1:12" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
-        <v>47300</v>
+        <v>47119</v>
       </c>
       <c r="B40" s="1">
-        <v>22.43</v>
+        <v>21.7</v>
       </c>
       <c r="C40" s="1">
-        <v>21.71</v>
+        <v>21.03</v>
       </c>
       <c r="D40" s="1">
-        <v>20.87</v>
+        <v>20.2</v>
       </c>
       <c r="E40" s="1">
-        <v>18.7</v>
+        <v>17.829999999999998</v>
       </c>
       <c r="F40" s="1">
-        <v>17.350000000000001</v>
+        <v>16.670000000000002</v>
       </c>
       <c r="G40" s="1">
-        <v>16.27</v>
+        <v>15.85</v>
       </c>
       <c r="H40" s="1">
-        <v>15.88</v>
+        <v>15.35</v>
       </c>
       <c r="I40" s="1">
-        <v>15.32</v>
+        <v>14.82</v>
       </c>
       <c r="J40" s="1">
-        <v>15.46</v>
+        <v>15</v>
       </c>
       <c r="K40" s="1">
-        <v>15.62</v>
+        <v>15.13</v>
       </c>
       <c r="L40" s="1">
-        <v>15.8</v>
+        <v>15.27</v>
       </c>
     </row>
     <row r="41" spans="1:12" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
+        <v>47300</v>
+      </c>
+      <c r="B41" s="1">
+        <v>22.43</v>
+      </c>
+      <c r="C41" s="1">
+        <v>21.71</v>
+      </c>
+      <c r="D41" s="1">
+        <v>20.84</v>
+      </c>
+      <c r="E41" s="1">
+        <v>18.34</v>
+      </c>
+      <c r="F41" s="1">
+        <v>17.29</v>
+      </c>
+      <c r="G41" s="1">
+        <v>16.34</v>
+      </c>
+      <c r="H41" s="1">
+        <v>15.88</v>
+      </c>
+      <c r="I41" s="1">
+        <v>15.32</v>
+      </c>
+      <c r="J41" s="1">
+        <v>15.44</v>
+      </c>
+      <c r="K41" s="1">
+        <v>15.6</v>
+      </c>
+      <c r="L41" s="1">
+        <v>15.8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="2">
         <v>10959</v>
       </c>
-      <c r="B41" s="1">
-        <v>22.16</v>
-      </c>
-      <c r="C41" s="1">
-        <v>21.47</v>
-      </c>
-      <c r="D41" s="1">
-        <v>20.65</v>
-      </c>
-      <c r="E41" s="1">
-        <v>18.52</v>
-      </c>
-      <c r="F41" s="1">
-        <v>17.18</v>
-      </c>
-      <c r="G41" s="1">
-        <v>16.09</v>
-      </c>
-      <c r="H41" s="1">
-        <v>15.38</v>
-      </c>
-      <c r="I41" s="1">
-        <v>15.05</v>
-      </c>
-      <c r="J41" s="1">
-        <v>15.09</v>
-      </c>
-      <c r="K41" s="1">
-        <v>15.2</v>
-      </c>
-      <c r="L41" s="1">
+      <c r="B42" s="1">
+        <v>22.03</v>
+      </c>
+      <c r="C42" s="1">
+        <v>21.33</v>
+      </c>
+      <c r="D42" s="1">
+        <v>20.5</v>
+      </c>
+      <c r="E42" s="1">
+        <v>18.38</v>
+      </c>
+      <c r="F42" s="1">
+        <v>17.059999999999999</v>
+      </c>
+      <c r="G42" s="1">
+        <v>16.010000000000002</v>
+      </c>
+      <c r="H42" s="1">
         <v>15.36</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
-      <c r="L42" s="1"/>
+      <c r="I42" s="1">
+        <v>15.11</v>
+      </c>
+      <c r="J42" s="1">
+        <v>15.28</v>
+      </c>
+      <c r="K42" s="1">
+        <v>15.44</v>
+      </c>
+      <c r="L42" s="1">
+        <v>15.63</v>
+      </c>
     </row>
     <row r="43" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="2" t="s">
-        <v>33</v>
-      </c>
+      <c r="A43" s="2"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -2321,7 +2333,7 @@
     </row>
     <row r="44" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -2337,7 +2349,7 @@
     </row>
     <row r="45" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -2353,7 +2365,7 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -2369,7 +2381,7 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -2383,6 +2395,38 @@
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
     </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A48" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A49" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/ddeprofit.xlsx
+++ b/ddeprofit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\planilhas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8114D8AC-10F1-4943-8CDB-5540E3CD09E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F025A877-EC3F-40CB-ADAA-96E354F3991E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -360,49 +360,49 @@
       <ddeItem name="DOLINDEX.ABE" advise="1">
         <values>
           <value>
-            <val>97.647368999999998</val>
+            <val>97.636189000000002</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="DOLINDEX.FEC" advise="1">
         <values>
           <value>
-            <val>97.647368999999998</val>
+            <val>97.636189000000002</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="DOLINDEX.MAX" advise="1">
         <values>
           <value>
-            <val>97.648875000000004</val>
+            <val>97.684252000000001</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="DOLINDEX.MIN" advise="1">
         <values>
           <value>
-            <val>97.627775</val>
+            <val>97.457633999999999</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="DOLINDEX.NEG" advise="1">
         <values>
           <value>
-            <val>1952</val>
+            <val>3370</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="DOLINDEX.ULT" advise="1">
         <values>
           <value>
-            <val>97.636627000000004</val>
+            <val>97.683732000000006</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="DOLINDEX.VAR" advise="1">
         <values>
           <value>
-            <val>-1.1000808429344033E-2</val>
+            <val>4.8694034954593235E-2</val>
           </value>
         </values>
       </ddeItem>
@@ -416,7 +416,7 @@
       <ddeItem name="DOLINDEX.VOL" advise="1">
         <values>
           <value>
-            <val>190605.859131</val>
+            <val>328833.56958200003</val>
           </value>
         </values>
       </ddeItem>
@@ -550,31 +550,31 @@
       <ddeItem name="USD/BRL.ABE" advise="1">
         <values>
           <value>
-            <val>5.3242000000000003</val>
+            <val>5.3243</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="USD/BRL.FEC" advise="1">
         <values>
           <value>
-            <val>5.3242000000000003</val>
+            <val>5.3243</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="USD/BRL.MAX" advise="1">
         <values>
           <value>
+            <val>5.3261820000000002</val>
+          </value>
+        </values>
+      </ddeItem>
+      <ddeItem name="USD/BRL.MIN" advise="1">
+        <values>
+          <value>
             <val>5.3243</val>
           </value>
         </values>
       </ddeItem>
-      <ddeItem name="USD/BRL.MIN" advise="1">
-        <values>
-          <value>
-            <val>5.3242000000000003</val>
-          </value>
-        </values>
-      </ddeItem>
       <ddeItem name="USD/BRL.NEG" advise="1">
         <values>
           <value>
@@ -585,14 +585,14 @@
       <ddeItem name="USD/BRL.ULT" advise="1">
         <values>
           <value>
-            <val>5.3243</val>
+            <val>5.3261820000000002</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="USD/BRL.VAR" advise="1">
         <values>
           <value>
-            <val>1.8782164456609962E-3</val>
+            <val>3.5347369607279688E-2</val>
           </value>
         </values>
       </ddeItem>
@@ -606,7 +606,7 @@
       <ddeItem name="USD/BRL.VOL" advise="1">
         <values>
           <value>
-            <val>15.9727</val>
+            <val>15.974781999999999</val>
           </value>
         </values>
       </ddeItem>
@@ -1106,27 +1106,27 @@
       </c>
       <c r="K4" cm="1">
         <f t="array" ref="K4">[1]!'USD/BRL.ULT'</f>
-        <v>5.3243</v>
+        <v>5.3261820000000002</v>
       </c>
       <c r="L4" cm="1">
         <f t="array" ref="L4">[1]!'USD/BRL.ABE'</f>
-        <v>5.3242000000000003</v>
+        <v>5.3243</v>
       </c>
       <c r="M4" cm="1">
         <f t="array" ref="M4">[1]!'USD/BRL.MAX'</f>
-        <v>5.3243</v>
+        <v>5.3261820000000002</v>
       </c>
       <c r="N4" cm="1">
         <f t="array" ref="N4">[1]!'USD/BRL.MIN'</f>
-        <v>5.3242000000000003</v>
+        <v>5.3243</v>
       </c>
       <c r="O4" cm="1">
         <f t="array" ref="O4">[1]!'USD/BRL.FEC'</f>
-        <v>5.3242000000000003</v>
+        <v>5.3243</v>
       </c>
       <c r="P4" cm="1">
         <f t="array" ref="P4">[1]!'USD/BRL.VAR'</f>
-        <v>1.8782164456609962E-3</v>
+        <v>3.5347369607279688E-2</v>
       </c>
       <c r="Q4" cm="1">
         <f t="array" ref="Q4">[1]!'USD/BRL.NEG'</f>
@@ -1134,7 +1134,7 @@
       </c>
       <c r="R4" cm="1">
         <f t="array" ref="R4">[1]!'USD/BRL.VOL'</f>
-        <v>15.9727</v>
+        <v>15.974781999999999</v>
       </c>
       <c r="S4" t="str" cm="1">
         <f t="array" ref="S4">[1]!'USD/BRL.VEN'</f>
@@ -1187,35 +1187,35 @@
       </c>
       <c r="K6" cm="1">
         <f t="array" ref="K6">[1]!DOLINDEX.ULT</f>
-        <v>97.636627000000004</v>
+        <v>97.683732000000006</v>
       </c>
       <c r="L6" cm="1">
         <f t="array" ref="L6">[1]!DOLINDEX.ABE</f>
-        <v>97.647368999999998</v>
+        <v>97.636189000000002</v>
       </c>
       <c r="M6" cm="1">
         <f t="array" ref="M6">[1]!DOLINDEX.MAX</f>
-        <v>97.648875000000004</v>
+        <v>97.684252000000001</v>
       </c>
       <c r="N6" cm="1">
         <f t="array" ref="N6">[1]!DOLINDEX.MIN</f>
-        <v>97.627775</v>
+        <v>97.457633999999999</v>
       </c>
       <c r="O6" cm="1">
         <f t="array" ref="O6">[1]!DOLINDEX.FEC</f>
-        <v>97.647368999999998</v>
+        <v>97.636189000000002</v>
       </c>
       <c r="P6" cm="1">
         <f t="array" ref="P6">[1]!DOLINDEX.VAR</f>
-        <v>-1.1000808429344033E-2</v>
+        <v>4.8694034954593235E-2</v>
       </c>
       <c r="Q6" cm="1">
         <f t="array" ref="Q6">[1]!DOLINDEX.NEG</f>
-        <v>1952</v>
+        <v>3370</v>
       </c>
       <c r="R6" cm="1">
         <f t="array" ref="R6">[1]!DOLINDEX.VOL</f>
-        <v>190605.859131</v>
+        <v>328833.56958200003</v>
       </c>
       <c r="S6" t="str" cm="1">
         <f t="array" ref="S6">[1]!DOLINDEX.VEN</f>

--- a/ddeprofit.xlsx
+++ b/ddeprofit.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\planilhas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F025A877-EC3F-40CB-ADAA-96E354F3991E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66B26B5F-434A-406C-BB30-B00CB9B665AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dde profit" sheetId="12" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
-    <definedName name="superficie_de_volatilidade_de_dolar" localSheetId="1">base_b3!$A$1:$L$53</definedName>
+    <definedName name="superficie_de_volatilidade_de_dolar" localSheetId="1">base_b3!$A$1:$L$52</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
   <si>
     <t>Ir conteúdo Ir menu Ir rodapé</t>
   </si>
@@ -178,16 +178,19 @@
     <t>GLDFUT</t>
   </si>
   <si>
-    <t xml:space="preserve">                                                                                                                                                                                                       Download do arquivo </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Atualizado em: 19/09/2025 </t>
-  </si>
-  <si>
-    <t>Delta %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  * A superfície de volatilidade de dólar é construída com base nas informações coletadas por um pool de Informantes às 18h</t>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Atualizado em: 26/09/2025 </t>
+  </si>
+  <si>
+    <t>Delta%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   * A superfície de volatilidade de dólar é construída com base nas informações coletadas por um pool de Informantes às 18h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                                                                                                                                                        Download do arquivo </t>
   </si>
 </sst>
 </file>
@@ -297,112 +300,112 @@
       <ddeItem name="DI1FUT.ABE" advise="1">
         <values>
           <value>
-            <val>14.01</val>
+            <val>13.36</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="DI1FUT.FEC" advise="1">
         <values>
           <value>
-            <val>13.995000000000001</val>
+            <val>13.365</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="DI1FUT.MAX" advise="1">
         <values>
           <value>
-            <val>14.025</val>
+            <val>13.39</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="DI1FUT.MIN" advise="1">
         <values>
           <value>
-            <val>13.975</val>
+            <val>13.315</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="DI1FUT.NEG" advise="1">
         <values>
           <value>
-            <val>19325</val>
+            <val>23720</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="DI1FUT.ULT" advise="1">
         <values>
           <value>
-            <val>14</val>
+            <val>13.315</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="DI1FUT.VAR" advise="1">
         <values>
           <value>
-            <val>3.5727045373363353E-2</val>
+            <val>-0.37411148522258486</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="DI1FUT.VEN" advise="1">
         <values>
           <value t="str">
-            <val>04/01/2027</val>
+            <val>03/01/2028</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="DI1FUT.VOL" advise="1">
         <values>
           <value>
-            <val>38489250748.389999</val>
+            <val>20121539007.73</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="DOLINDEX.ABE" advise="1">
         <values>
           <value>
-            <val>97.636189000000002</val>
+            <val>98.184218000000001</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="DOLINDEX.FEC" advise="1">
         <values>
           <value>
-            <val>97.636189000000002</val>
+            <val>98.184218000000001</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="DOLINDEX.MAX" advise="1">
         <values>
           <value>
-            <val>97.684252000000001</val>
+            <val>98.194982999999993</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="DOLINDEX.MIN" advise="1">
         <values>
           <value>
-            <val>97.457633999999999</val>
+            <val>98.151262000000003</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="DOLINDEX.NEG" advise="1">
         <values>
           <value>
-            <val>3370</val>
+            <val>2752</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="DOLINDEX.ULT" advise="1">
         <values>
           <value>
-            <val>97.683732000000006</val>
+            <val>98.177357999999998</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="DOLINDEX.VAR" advise="1">
         <values>
           <value>
-            <val>4.8694034954593235E-2</val>
+            <val>-6.9868662599219533E-3</val>
           </value>
         </values>
       </ddeItem>
@@ -416,56 +419,56 @@
       <ddeItem name="DOLINDEX.VOL" advise="1">
         <values>
           <value>
-            <val>328833.56958200003</val>
+            <val>270156.73265899997</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="FRP0.ABE" advise="1">
         <values>
           <value>
-            <val>12.3</val>
+            <val>3.2</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="FRP0.FEC" advise="1">
         <values>
           <value>
-            <val>15</val>
+            <val>5.8000000000000007</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="FRP0.MAX" advise="1">
         <values>
           <value>
-            <val>12.6</val>
+            <val>3.7</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="FRP0.MIN" advise="1">
         <values>
           <value>
-            <val>11.5</val>
+            <val>2.8</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="FRP0.NEG" advise="1">
         <values>
           <value>
-            <val>146</val>
+            <val>521</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="FRP0.ULT" advise="1">
         <values>
           <value>
-            <val>11.8</val>
+            <val>3.3</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="FRP0.VAR" advise="1">
         <values>
           <value>
-            <val>-21.333333333333329</val>
+            <val>-43.103448275862064</val>
           </value>
         </values>
       </ddeItem>
@@ -479,56 +482,56 @@
       <ddeItem name="FRP0.VOL" advise="1">
         <values>
           <value>
-            <val>5120688525</val>
+            <val>10412060350</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="GLDFUT.ABE" advise="1">
         <values>
           <value>
-            <val>3680.5</val>
+            <val>3794</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="GLDFUT.FEC" advise="1">
         <values>
           <value>
-            <val>3677.75</val>
+            <val>3789</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="GLDFUT.MAX" advise="1">
         <values>
           <value>
-            <val>3719</val>
+            <val>3819.25</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="GLDFUT.MIN" advise="1">
         <values>
           <value>
-            <val>3676.75</val>
+            <val>3785.25</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="GLDFUT.NEG" advise="1">
         <values>
           <value>
-            <val>235</val>
+            <val>1252</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="GLDFUT.ULT" advise="1">
         <values>
           <value>
-            <val>3719</val>
+            <val>3793</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="GLDFUT.VAR" advise="1">
         <values>
           <value>
-            <val>1.1216096798314084</val>
+            <val>0.10556875164951407</val>
           </value>
         </values>
       </ddeItem>
@@ -542,7 +545,7 @@
       <ddeItem name="GLDFUT.VOL" advise="1">
         <values>
           <value>
-            <val>11210912.82</val>
+            <val>54854761.770000003</val>
           </value>
         </values>
       </ddeItem>
@@ -550,28 +553,28 @@
       <ddeItem name="USD/BRL.ABE" advise="1">
         <values>
           <value>
-            <val>5.3243</val>
+            <val>5.3441000000000001</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="USD/BRL.FEC" advise="1">
         <values>
           <value>
-            <val>5.3243</val>
+            <val>5.3441000000000001</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="USD/BRL.MAX" advise="1">
         <values>
           <value>
-            <val>5.3261820000000002</val>
+            <val>5.3469340000000001</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="USD/BRL.MIN" advise="1">
         <values>
           <value>
-            <val>5.3243</val>
+            <val>5.3441000000000001</val>
           </value>
         </values>
       </ddeItem>
@@ -585,14 +588,14 @@
       <ddeItem name="USD/BRL.ULT" advise="1">
         <values>
           <value>
-            <val>5.3261820000000002</val>
+            <val>5.3469340000000001</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="USD/BRL.VAR" advise="1">
         <values>
           <value>
-            <val>3.5347369607279688E-2</val>
+            <val>5.3030444789570197E-2</val>
           </value>
         </values>
       </ddeItem>
@@ -606,49 +609,49 @@
       <ddeItem name="USD/BRL.VOL" advise="1">
         <values>
           <value>
-            <val>15.974781999999999</val>
+            <val>16.035133999999999</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="WDOFUT.ABE" advise="1">
         <values>
           <value>
+            <val>5370</val>
+          </value>
+        </values>
+      </ddeItem>
+      <ddeItem name="WDOFUT.MAX" advise="1">
+        <values>
+          <value>
+            <val>5370</val>
+          </value>
+        </values>
+      </ddeItem>
+      <ddeItem name="WDOFUT.MIN" advise="1">
+        <values>
+          <value>
             <val>5338</val>
           </value>
         </values>
       </ddeItem>
-      <ddeItem name="WDOFUT.MAX" advise="1">
-        <values>
-          <value>
-            <val>5351.5</val>
-          </value>
-        </values>
-      </ddeItem>
-      <ddeItem name="WDOFUT.MIN" advise="1">
-        <values>
-          <value>
-            <val>5328</val>
-          </value>
-        </values>
-      </ddeItem>
       <ddeItem name="WDOFUT.NEG" advise="1">
         <values>
           <value>
-            <val>481689</val>
+            <val>536370</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="WDOFUT.ULT" advise="1">
         <values>
           <value>
-            <val>5346</val>
+            <val>5354.5</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="WDOFUT.VAR" advise="1">
         <values>
           <value>
-            <val>0.46983649689909157</val>
+            <val>-0.27006891413671497</val>
           </value>
         </values>
       </ddeItem>
@@ -662,7 +665,7 @@
       <ddeItem name="WDOFUT.VOL" advise="1">
         <values>
           <value>
-            <val>108455916010</val>
+            <val>122117020770</val>
           </value>
         </values>
       </ddeItem>
@@ -974,8 +977,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="J1:S7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="U20" sqref="U20"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1024,39 +1027,39 @@
       </c>
       <c r="K2" cm="1">
         <f t="array" ref="K2">[1]!DI1FUT.ULT</f>
-        <v>14</v>
+        <v>13.315</v>
       </c>
       <c r="L2" cm="1">
         <f t="array" ref="L2">[1]!DI1FUT.ABE</f>
-        <v>14.01</v>
+        <v>13.36</v>
       </c>
       <c r="M2" cm="1">
         <f t="array" ref="M2">[1]!DI1FUT.MAX</f>
-        <v>14.025</v>
+        <v>13.39</v>
       </c>
       <c r="N2" cm="1">
         <f t="array" ref="N2">[1]!DI1FUT.MIN</f>
-        <v>13.975</v>
+        <v>13.315</v>
       </c>
       <c r="O2" cm="1">
         <f t="array" ref="O2">[1]!DI1FUT.FEC</f>
-        <v>13.995000000000001</v>
+        <v>13.365</v>
       </c>
       <c r="P2" cm="1">
         <f t="array" ref="P2">[1]!DI1FUT.VAR</f>
-        <v>3.5727045373363353E-2</v>
+        <v>-0.37411148522258486</v>
       </c>
       <c r="Q2" cm="1">
         <f t="array" ref="Q2">[1]!DI1FUT.NEG</f>
-        <v>19325</v>
+        <v>23720</v>
       </c>
       <c r="R2" cm="1">
         <f t="array" ref="R2">[1]!DI1FUT.VOL</f>
-        <v>38489250748.389999</v>
+        <v>20121539007.73</v>
       </c>
       <c r="S2" t="str" cm="1">
         <f t="array" ref="S2">[1]!DI1FUT.VEN</f>
-        <v>04/01/2027</v>
+        <v>03/01/2028</v>
       </c>
     </row>
     <row r="3" spans="10:19" x14ac:dyDescent="0.25">
@@ -1065,35 +1068,35 @@
       </c>
       <c r="K3" cm="1">
         <f t="array" ref="K3">[1]!FRP0.ULT</f>
-        <v>11.8</v>
+        <v>3.3</v>
       </c>
       <c r="L3" cm="1">
         <f t="array" ref="L3">[1]!FRP0.ABE</f>
-        <v>12.3</v>
+        <v>3.2</v>
       </c>
       <c r="M3" cm="1">
         <f t="array" ref="M3">[1]!FRP0.MAX</f>
-        <v>12.6</v>
+        <v>3.7</v>
       </c>
       <c r="N3" cm="1">
         <f t="array" ref="N3">[1]!FRP0.MIN</f>
-        <v>11.5</v>
+        <v>2.8</v>
       </c>
       <c r="O3" cm="1">
         <f t="array" ref="O3">[1]!FRP0.FEC</f>
-        <v>15</v>
+        <v>5.8000000000000007</v>
       </c>
       <c r="P3" cm="1">
         <f t="array" ref="P3">[1]!FRP0.VAR</f>
-        <v>-21.333333333333329</v>
+        <v>-43.103448275862064</v>
       </c>
       <c r="Q3" cm="1">
         <f t="array" ref="Q3">[1]!FRP0.NEG</f>
-        <v>146</v>
+        <v>521</v>
       </c>
       <c r="R3" cm="1">
         <f t="array" ref="R3">[1]!FRP0.VOL</f>
-        <v>5120688525</v>
+        <v>10412060350</v>
       </c>
       <c r="S3" t="str" cm="1">
         <f t="array" ref="S3">[1]!FRP0.VEN</f>
@@ -1106,27 +1109,27 @@
       </c>
       <c r="K4" cm="1">
         <f t="array" ref="K4">[1]!'USD/BRL.ULT'</f>
-        <v>5.3261820000000002</v>
+        <v>5.3469340000000001</v>
       </c>
       <c r="L4" cm="1">
         <f t="array" ref="L4">[1]!'USD/BRL.ABE'</f>
-        <v>5.3243</v>
+        <v>5.3441000000000001</v>
       </c>
       <c r="M4" cm="1">
         <f t="array" ref="M4">[1]!'USD/BRL.MAX'</f>
-        <v>5.3261820000000002</v>
+        <v>5.3469340000000001</v>
       </c>
       <c r="N4" cm="1">
         <f t="array" ref="N4">[1]!'USD/BRL.MIN'</f>
-        <v>5.3243</v>
+        <v>5.3441000000000001</v>
       </c>
       <c r="O4" cm="1">
         <f t="array" ref="O4">[1]!'USD/BRL.FEC'</f>
-        <v>5.3243</v>
+        <v>5.3441000000000001</v>
       </c>
       <c r="P4" cm="1">
         <f t="array" ref="P4">[1]!'USD/BRL.VAR'</f>
-        <v>3.5347369607279688E-2</v>
+        <v>5.3030444789570197E-2</v>
       </c>
       <c r="Q4" cm="1">
         <f t="array" ref="Q4">[1]!'USD/BRL.NEG'</f>
@@ -1134,7 +1137,7 @@
       </c>
       <c r="R4" cm="1">
         <f t="array" ref="R4">[1]!'USD/BRL.VOL'</f>
-        <v>15.974781999999999</v>
+        <v>16.035133999999999</v>
       </c>
       <c r="S4" t="str" cm="1">
         <f t="array" ref="S4">[1]!'USD/BRL.VEN'</f>
@@ -1147,34 +1150,34 @@
       </c>
       <c r="K5" cm="1">
         <f t="array" ref="K5">[1]!WDOFUT.ULT</f>
-        <v>5346</v>
+        <v>5354.5</v>
       </c>
       <c r="L5" cm="1">
         <f t="array" ref="L5">[1]!WDOFUT.ABE</f>
-        <v>5338</v>
+        <v>5370</v>
       </c>
       <c r="M5" cm="1">
         <f t="array" ref="M5">[1]!WDOFUT.MAX</f>
-        <v>5351.5</v>
+        <v>5370</v>
       </c>
       <c r="N5" cm="1">
         <f t="array" ref="N5">[1]!WDOFUT.MIN</f>
-        <v>5328</v>
+        <v>5338</v>
       </c>
       <c r="O5">
-        <v>5346</v>
+        <v>5354.5</v>
       </c>
       <c r="P5" cm="1">
         <f t="array" ref="P5">[1]!WDOFUT.VAR</f>
-        <v>0.46983649689909157</v>
+        <v>-0.27006891413671497</v>
       </c>
       <c r="Q5" cm="1">
         <f t="array" ref="Q5">[1]!WDOFUT.NEG</f>
-        <v>481689</v>
+        <v>536370</v>
       </c>
       <c r="R5" cm="1">
         <f t="array" ref="R5">[1]!WDOFUT.VOL</f>
-        <v>108455916010</v>
+        <v>122117020770</v>
       </c>
       <c r="S5" t="str" cm="1">
         <f t="array" ref="S5">[1]!WDOFUT.VEN</f>
@@ -1187,35 +1190,35 @@
       </c>
       <c r="K6" cm="1">
         <f t="array" ref="K6">[1]!DOLINDEX.ULT</f>
-        <v>97.683732000000006</v>
+        <v>98.177357999999998</v>
       </c>
       <c r="L6" cm="1">
         <f t="array" ref="L6">[1]!DOLINDEX.ABE</f>
-        <v>97.636189000000002</v>
+        <v>98.184218000000001</v>
       </c>
       <c r="M6" cm="1">
         <f t="array" ref="M6">[1]!DOLINDEX.MAX</f>
-        <v>97.684252000000001</v>
+        <v>98.194982999999993</v>
       </c>
       <c r="N6" cm="1">
         <f t="array" ref="N6">[1]!DOLINDEX.MIN</f>
-        <v>97.457633999999999</v>
+        <v>98.151262000000003</v>
       </c>
       <c r="O6" cm="1">
         <f t="array" ref="O6">[1]!DOLINDEX.FEC</f>
-        <v>97.636189000000002</v>
+        <v>98.184218000000001</v>
       </c>
       <c r="P6" cm="1">
         <f t="array" ref="P6">[1]!DOLINDEX.VAR</f>
-        <v>4.8694034954593235E-2</v>
+        <v>-6.9868662599219533E-3</v>
       </c>
       <c r="Q6" cm="1">
         <f t="array" ref="Q6">[1]!DOLINDEX.NEG</f>
-        <v>3370</v>
+        <v>2752</v>
       </c>
       <c r="R6" cm="1">
         <f t="array" ref="R6">[1]!DOLINDEX.VOL</f>
-        <v>328833.56958200003</v>
+        <v>270156.73265899997</v>
       </c>
       <c r="S6" t="str" cm="1">
         <f t="array" ref="S6">[1]!DOLINDEX.VEN</f>
@@ -1228,35 +1231,35 @@
       </c>
       <c r="K7" cm="1">
         <f t="array" ref="K7">[1]!GLDFUT.ULT</f>
-        <v>3719</v>
+        <v>3793</v>
       </c>
       <c r="L7" cm="1">
         <f t="array" ref="L7">[1]!GLDFUT.ABE</f>
-        <v>3680.5</v>
+        <v>3794</v>
       </c>
       <c r="M7" cm="1">
         <f t="array" ref="M7">[1]!GLDFUT.MAX</f>
-        <v>3719</v>
+        <v>3819.25</v>
       </c>
       <c r="N7" cm="1">
         <f t="array" ref="N7">[1]!GLDFUT.MIN</f>
-        <v>3676.75</v>
+        <v>3785.25</v>
       </c>
       <c r="O7" cm="1">
         <f t="array" ref="O7">[1]!GLDFUT.FEC</f>
-        <v>3677.75</v>
+        <v>3789</v>
       </c>
       <c r="P7" cm="1">
         <f t="array" ref="P7">[1]!GLDFUT.VAR</f>
-        <v>1.1216096798314084</v>
+        <v>0.10556875164951407</v>
       </c>
       <c r="Q7" cm="1">
         <f t="array" ref="Q7">[1]!GLDFUT.NEG</f>
-        <v>235</v>
+        <v>1252</v>
       </c>
       <c r="R7" cm="1">
         <f t="array" ref="R7">[1]!GLDFUT.VOL</f>
-        <v>11210912.82</v>
+        <v>54854761.770000003</v>
       </c>
       <c r="S7" t="str" cm="1">
         <f t="array" ref="S7">[1]!GLDFUT.VEN</f>
@@ -1271,10 +1274,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Planilha10"/>
-  <dimension ref="A1:L53"/>
+  <dimension ref="A1:L52"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R6" sqref="R6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.28515625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -1410,37 +1413,37 @@
         <v>45931</v>
       </c>
       <c r="B19" s="4">
-        <v>14.33</v>
+        <v>14.31</v>
       </c>
       <c r="C19" s="4">
-        <v>13.78</v>
+        <v>13.35</v>
       </c>
       <c r="D19" s="4">
-        <v>13.12</v>
+        <v>12.39</v>
       </c>
       <c r="E19" s="4">
-        <v>11.4</v>
+        <v>10.74</v>
       </c>
       <c r="F19" s="4">
-        <v>10.52</v>
+        <v>9.8800000000000008</v>
       </c>
       <c r="G19" s="4">
-        <v>9.9</v>
+        <v>9.27</v>
       </c>
       <c r="H19" s="4">
-        <v>9.44</v>
+        <v>8.82</v>
       </c>
       <c r="I19" s="4">
-        <v>8.98</v>
+        <v>8.36</v>
       </c>
       <c r="J19" s="4">
-        <v>8.68</v>
+        <v>8.01</v>
       </c>
       <c r="K19" s="4">
-        <v>8.9499999999999993</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="L19" s="4">
-        <v>9.3800000000000008</v>
+        <v>9.83</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -1448,37 +1451,37 @@
         <v>45962</v>
       </c>
       <c r="B20" s="4">
-        <v>16.16</v>
+        <v>15.84</v>
       </c>
       <c r="C20" s="4">
-        <v>15.58</v>
+        <v>15.22</v>
       </c>
       <c r="D20" s="4">
-        <v>14.89</v>
+        <v>14.52</v>
       </c>
       <c r="E20" s="4">
-        <v>13.07</v>
+        <v>12.79</v>
       </c>
       <c r="F20" s="4">
-        <v>11.9</v>
+        <v>11.45</v>
       </c>
       <c r="G20" s="4">
-        <v>10.98</v>
+        <v>10.71</v>
       </c>
       <c r="H20" s="4">
-        <v>10.45</v>
+        <v>10.18</v>
       </c>
       <c r="I20" s="4">
-        <v>9.92</v>
+        <v>9.64</v>
       </c>
       <c r="J20" s="4">
-        <v>9.64</v>
+        <v>9.2899999999999991</v>
       </c>
       <c r="K20" s="4">
-        <v>9.67</v>
+        <v>9.32</v>
       </c>
       <c r="L20" s="4">
-        <v>9.73</v>
+        <v>9.3699999999999992</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -1486,37 +1489,37 @@
         <v>45992</v>
       </c>
       <c r="B21" s="4">
-        <v>16.64</v>
+        <v>16.7</v>
       </c>
       <c r="C21" s="4">
-        <v>16.04</v>
+        <v>16.059999999999999</v>
       </c>
       <c r="D21" s="4">
-        <v>15.31</v>
+        <v>15.28</v>
       </c>
       <c r="E21" s="4">
-        <v>13.19</v>
+        <v>13.13</v>
       </c>
       <c r="F21" s="4">
-        <v>12.3</v>
+        <v>12.23</v>
       </c>
       <c r="G21" s="4">
-        <v>11.37</v>
+        <v>11.28</v>
       </c>
       <c r="H21" s="4">
-        <v>10.84</v>
+        <v>10.73</v>
       </c>
       <c r="I21" s="4">
-        <v>10.3</v>
+        <v>10.18</v>
       </c>
       <c r="J21" s="4">
-        <v>10.02</v>
+        <v>9.8699999999999992</v>
       </c>
       <c r="K21" s="4">
-        <v>10.050000000000001</v>
+        <v>9.91</v>
       </c>
       <c r="L21" s="4">
-        <v>10.11</v>
+        <v>9.9700000000000006</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -1524,37 +1527,37 @@
         <v>46023</v>
       </c>
       <c r="B22" s="4">
-        <v>17.46</v>
+        <v>17.39</v>
       </c>
       <c r="C22" s="4">
-        <v>16.760000000000002</v>
+        <v>16.66</v>
       </c>
       <c r="D22" s="4">
-        <v>15.96</v>
+        <v>15.84</v>
       </c>
       <c r="E22" s="4">
-        <v>14.06</v>
+        <v>13.92</v>
       </c>
       <c r="F22" s="4">
-        <v>12.63</v>
+        <v>12.45</v>
       </c>
       <c r="G22" s="4">
-        <v>11.87</v>
+        <v>11.67</v>
       </c>
       <c r="H22" s="4">
-        <v>11.35</v>
+        <v>11.14</v>
       </c>
       <c r="I22" s="4">
-        <v>10.85</v>
+        <v>10.62</v>
       </c>
       <c r="J22" s="4">
-        <v>10.7</v>
+        <v>10.45</v>
       </c>
       <c r="K22" s="4">
-        <v>10.79</v>
+        <v>10.53</v>
       </c>
       <c r="L22" s="4">
-        <v>10.94</v>
+        <v>10.66</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -1562,37 +1565,37 @@
         <v>46054</v>
       </c>
       <c r="B23" s="4">
-        <v>17.920000000000002</v>
+        <v>18</v>
       </c>
       <c r="C23" s="4">
-        <v>17.260000000000002</v>
+        <v>17.329999999999998</v>
       </c>
       <c r="D23" s="4">
-        <v>16.48</v>
+        <v>16.53</v>
       </c>
       <c r="E23" s="4">
         <v>14.47</v>
       </c>
       <c r="F23" s="4">
-        <v>13.19</v>
+        <v>13.17</v>
       </c>
       <c r="G23" s="4">
-        <v>12.15</v>
+        <v>12.12</v>
       </c>
       <c r="H23" s="4">
-        <v>11.46</v>
+        <v>11.43</v>
       </c>
       <c r="I23" s="4">
-        <v>11.14</v>
+        <v>11.12</v>
       </c>
       <c r="J23" s="4">
-        <v>11.14</v>
+        <v>11.12</v>
       </c>
       <c r="K23" s="4">
         <v>11.24</v>
       </c>
       <c r="L23" s="4">
-        <v>11.39</v>
+        <v>11.44</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -1600,37 +1603,37 @@
         <v>46082</v>
       </c>
       <c r="B24" s="4">
-        <v>18.28</v>
+        <v>18.27</v>
       </c>
       <c r="C24" s="4">
-        <v>17.55</v>
+        <v>17.53</v>
       </c>
       <c r="D24" s="4">
-        <v>16.73</v>
+        <v>16.7</v>
       </c>
       <c r="E24" s="4">
-        <v>14.82</v>
+        <v>14.8</v>
       </c>
       <c r="F24" s="4">
-        <v>13.38</v>
+        <v>13.37</v>
       </c>
       <c r="G24" s="4">
-        <v>12.62</v>
+        <v>12.61</v>
       </c>
       <c r="H24" s="4">
         <v>12.1</v>
       </c>
       <c r="I24" s="4">
-        <v>11.61</v>
+        <v>11.62</v>
       </c>
       <c r="J24" s="4">
-        <v>11.53</v>
+        <v>11.58</v>
       </c>
       <c r="K24" s="4">
-        <v>11.63</v>
+        <v>11.69</v>
       </c>
       <c r="L24" s="4">
-        <v>11.78</v>
+        <v>11.85</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -1638,37 +1641,37 @@
         <v>46113</v>
       </c>
       <c r="B25" s="4">
-        <v>18.66</v>
+        <v>18.41</v>
       </c>
       <c r="C25" s="4">
-        <v>17.95</v>
+        <v>17.739999999999998</v>
       </c>
       <c r="D25" s="4">
-        <v>17.12</v>
+        <v>16.940000000000001</v>
       </c>
       <c r="E25" s="4">
-        <v>14.92</v>
+        <v>14.75</v>
       </c>
       <c r="F25" s="4">
-        <v>13.97</v>
+        <v>13.81</v>
       </c>
       <c r="G25" s="4">
-        <v>12.94</v>
+        <v>12.8</v>
       </c>
       <c r="H25" s="4">
-        <v>12.53</v>
+        <v>12.39</v>
       </c>
       <c r="I25" s="4">
-        <v>12.04</v>
+        <v>11.91</v>
       </c>
       <c r="J25" s="4">
-        <v>12</v>
+        <v>11.88</v>
       </c>
       <c r="K25" s="4">
-        <v>12.09</v>
+        <v>11.95</v>
       </c>
       <c r="L25" s="4">
-        <v>12.23</v>
+        <v>12.07</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -1676,37 +1679,37 @@
         <v>46143</v>
       </c>
       <c r="B26" s="4">
-        <v>18.850000000000001</v>
+        <v>18.649999999999999</v>
       </c>
       <c r="C26" s="4">
-        <v>18.21</v>
+        <v>18.02</v>
       </c>
       <c r="D26" s="4">
-        <v>17.45</v>
+        <v>17.28</v>
       </c>
       <c r="E26" s="4">
-        <v>15.5</v>
+        <v>15.35</v>
       </c>
       <c r="F26" s="4">
-        <v>14.26</v>
+        <v>14.13</v>
       </c>
       <c r="G26" s="4">
-        <v>13.35</v>
+        <v>13.12</v>
       </c>
       <c r="H26" s="4">
-        <v>12.58</v>
+        <v>12.46</v>
       </c>
       <c r="I26" s="4">
-        <v>12.27</v>
+        <v>12.14</v>
       </c>
       <c r="J26" s="4">
-        <v>12.31</v>
+        <v>12.15</v>
       </c>
       <c r="K26" s="4">
-        <v>12.4</v>
+        <v>12.23</v>
       </c>
       <c r="L26" s="4">
-        <v>12.52</v>
+        <v>12.35</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -1714,37 +1717,37 @@
         <v>46174</v>
       </c>
       <c r="B27" s="4">
-        <v>19.16</v>
+        <v>19.03</v>
       </c>
       <c r="C27" s="4">
-        <v>18.54</v>
+        <v>18.41</v>
       </c>
       <c r="D27" s="4">
-        <v>17.809999999999999</v>
+        <v>17.68</v>
       </c>
       <c r="E27" s="4">
-        <v>15.91</v>
+        <v>15.77</v>
       </c>
       <c r="F27" s="4">
-        <v>14.54</v>
+        <v>14.4</v>
       </c>
       <c r="G27" s="4">
-        <v>13.7</v>
+        <v>13.66</v>
       </c>
       <c r="H27" s="4">
-        <v>13.02</v>
+        <v>12.88</v>
       </c>
       <c r="I27" s="4">
-        <v>12.68</v>
+        <v>12.55</v>
       </c>
       <c r="J27" s="4">
-        <v>12.68</v>
+        <v>12.54</v>
       </c>
       <c r="K27" s="4">
-        <v>12.74</v>
+        <v>12.6</v>
       </c>
       <c r="L27" s="4">
-        <v>12.84</v>
+        <v>12.7</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -1752,37 +1755,37 @@
         <v>46204</v>
       </c>
       <c r="B28" s="4">
-        <v>19.32</v>
+        <v>19.18</v>
       </c>
       <c r="C28" s="4">
-        <v>18.62</v>
+        <v>18.48</v>
       </c>
       <c r="D28" s="4">
-        <v>17.79</v>
+        <v>17.68</v>
       </c>
       <c r="E28" s="4">
-        <v>15.59</v>
+        <v>15.78</v>
       </c>
       <c r="F28" s="4">
-        <v>14.65</v>
+        <v>14.4</v>
       </c>
       <c r="G28" s="4">
-        <v>13.76</v>
+        <v>13.65</v>
       </c>
       <c r="H28" s="4">
-        <v>13.28</v>
+        <v>13.17</v>
       </c>
       <c r="I28" s="4">
-        <v>12.83</v>
+        <v>12.72</v>
       </c>
       <c r="J28" s="4">
-        <v>12.9</v>
+        <v>12.79</v>
       </c>
       <c r="K28" s="4">
+        <v>12.88</v>
+      </c>
+      <c r="L28" s="4">
         <v>13.01</v>
-      </c>
-      <c r="L28" s="4">
-        <v>13.16</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -1790,19 +1793,19 @@
         <v>46235</v>
       </c>
       <c r="B29" s="4">
-        <v>19.5</v>
+        <v>19.52</v>
       </c>
       <c r="C29" s="4">
-        <v>18.78</v>
+        <v>18.79</v>
       </c>
       <c r="D29" s="4">
-        <v>17.97</v>
+        <v>17.98</v>
       </c>
       <c r="E29" s="4">
-        <v>16.079999999999998</v>
+        <v>16.09</v>
       </c>
       <c r="F29" s="4">
-        <v>14.7</v>
+        <v>14.71</v>
       </c>
       <c r="G29" s="4">
         <v>13.95</v>
@@ -1811,16 +1814,16 @@
         <v>13.47</v>
       </c>
       <c r="I29" s="4">
-        <v>13.02</v>
+        <v>13.01</v>
       </c>
       <c r="J29" s="4">
-        <v>13.09</v>
+        <v>13.06</v>
       </c>
       <c r="K29" s="4">
-        <v>13.2</v>
+        <v>13.18</v>
       </c>
       <c r="L29" s="4">
-        <v>13.35</v>
+        <v>13.34</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -1828,37 +1831,37 @@
         <v>46266</v>
       </c>
       <c r="B30" s="4">
-        <v>19.61</v>
+        <v>19.670000000000002</v>
       </c>
       <c r="C30" s="4">
-        <v>18.95</v>
+        <v>19.03</v>
       </c>
       <c r="D30" s="4">
-        <v>18.190000000000001</v>
+        <v>18.25</v>
       </c>
       <c r="E30" s="4">
-        <v>16.27</v>
+        <v>16.02</v>
       </c>
       <c r="F30" s="4">
-        <v>15.04</v>
+        <v>15.1</v>
       </c>
       <c r="G30" s="4">
-        <v>14.15</v>
+        <v>14.2</v>
       </c>
       <c r="H30" s="4">
-        <v>13.66</v>
+        <v>13.72</v>
       </c>
       <c r="I30" s="4">
-        <v>13.14</v>
+        <v>13.19</v>
       </c>
       <c r="J30" s="4">
-        <v>13.17</v>
+        <v>13.23</v>
       </c>
       <c r="K30" s="4">
-        <v>13.26</v>
+        <v>13.31</v>
       </c>
       <c r="L30" s="4">
-        <v>13.38</v>
+        <v>13.43</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -1866,37 +1869,37 @@
         <v>46296</v>
       </c>
       <c r="B31" s="4">
-        <v>19.7</v>
+        <v>19.78</v>
       </c>
       <c r="C31" s="4">
-        <v>19.04</v>
+        <v>19.12</v>
       </c>
       <c r="D31" s="4">
-        <v>18.27</v>
+        <v>18.36</v>
       </c>
       <c r="E31" s="4">
-        <v>16.36</v>
+        <v>16.440000000000001</v>
       </c>
       <c r="F31" s="4">
-        <v>14.99</v>
+        <v>15.06</v>
       </c>
       <c r="G31" s="4">
-        <v>14.24</v>
+        <v>14.31</v>
       </c>
       <c r="H31" s="4">
-        <v>13.76</v>
+        <v>13.83</v>
       </c>
       <c r="I31" s="4">
-        <v>13.23</v>
+        <v>13.3</v>
       </c>
       <c r="J31" s="4">
-        <v>13.28</v>
+        <v>13.35</v>
       </c>
       <c r="K31" s="4">
-        <v>13.36</v>
+        <v>13.43</v>
       </c>
       <c r="L31" s="4">
-        <v>13.48</v>
+        <v>13.55</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -1942,37 +1945,37 @@
         <v>46388</v>
       </c>
       <c r="B33" s="4">
-        <v>20.239999999999998</v>
+        <v>20.440000000000001</v>
       </c>
       <c r="C33" s="4">
-        <v>19.57</v>
+        <v>19.72</v>
       </c>
       <c r="D33" s="4">
-        <v>18.75</v>
+        <v>18.86</v>
       </c>
       <c r="E33" s="4">
-        <v>16.53</v>
+        <v>16.61</v>
       </c>
       <c r="F33" s="4">
-        <v>15.45</v>
+        <v>15.52</v>
       </c>
       <c r="G33" s="4">
-        <v>14.7</v>
+        <v>14.76</v>
       </c>
       <c r="H33" s="4">
-        <v>14.24</v>
+        <v>14.3</v>
       </c>
       <c r="I33" s="4">
-        <v>13.82</v>
+        <v>13.89</v>
       </c>
       <c r="J33" s="4">
-        <v>13.99</v>
+        <v>14.09</v>
       </c>
       <c r="K33" s="4">
-        <v>14.09</v>
+        <v>14.23</v>
       </c>
       <c r="L33" s="4">
-        <v>14.19</v>
+        <v>14.37</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -2018,37 +2021,37 @@
         <v>46569</v>
       </c>
       <c r="B35" s="1">
-        <v>21.07</v>
+        <v>21.45</v>
       </c>
       <c r="C35" s="1">
-        <v>20.37</v>
+        <v>20.71</v>
       </c>
       <c r="D35" s="1">
-        <v>19.57</v>
+        <v>19.86</v>
       </c>
       <c r="E35" s="1">
-        <v>17.57</v>
+        <v>17.75</v>
       </c>
       <c r="F35" s="1">
-        <v>16.16</v>
+        <v>16.3</v>
       </c>
       <c r="G35" s="1">
-        <v>15.38</v>
+        <v>15.5</v>
       </c>
       <c r="H35" s="1">
-        <v>14.91</v>
+        <v>15.04</v>
       </c>
       <c r="I35" s="1">
-        <v>14.4</v>
+        <v>14.55</v>
       </c>
       <c r="J35" s="1">
-        <v>14.55</v>
+        <v>14.79</v>
       </c>
       <c r="K35" s="1">
-        <v>14.68</v>
+        <v>14.98</v>
       </c>
       <c r="L35" s="1">
-        <v>14.83</v>
+        <v>15.19</v>
       </c>
     </row>
     <row r="36" spans="1:12" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -2056,37 +2059,37 @@
         <v>46600</v>
       </c>
       <c r="B36" s="1">
-        <v>21.45</v>
+        <v>21.68</v>
       </c>
       <c r="C36" s="1">
-        <v>20.76</v>
+        <v>20.94</v>
       </c>
       <c r="D36" s="1">
-        <v>19.95</v>
+        <v>20.09</v>
       </c>
       <c r="E36" s="1">
-        <v>17.86</v>
+        <v>17.97</v>
       </c>
       <c r="F36" s="1">
-        <v>16.55</v>
+        <v>16.64</v>
       </c>
       <c r="G36" s="1">
-        <v>15.51</v>
+        <v>15.58</v>
       </c>
       <c r="H36" s="1">
-        <v>14.86</v>
+        <v>14.94</v>
       </c>
       <c r="I36" s="1">
-        <v>14.62</v>
+        <v>14.72</v>
       </c>
       <c r="J36" s="1">
-        <v>14.73</v>
+        <v>14.91</v>
       </c>
       <c r="K36" s="1">
-        <v>14.87</v>
+        <v>15.08</v>
       </c>
       <c r="L36" s="1">
-        <v>15.06</v>
+        <v>15.29</v>
       </c>
     </row>
     <row r="37" spans="1:12" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -2132,37 +2135,37 @@
         <v>46753</v>
       </c>
       <c r="B38" s="1">
-        <v>21.56</v>
+        <v>22.07</v>
       </c>
       <c r="C38" s="1">
-        <v>20.87</v>
+        <v>21.31</v>
       </c>
       <c r="D38" s="1">
-        <v>20.059999999999999</v>
+        <v>20.43</v>
       </c>
       <c r="E38" s="1">
-        <v>17.96</v>
+        <v>18.170000000000002</v>
       </c>
       <c r="F38" s="1">
-        <v>16.649999999999999</v>
+        <v>16.66</v>
       </c>
       <c r="G38" s="1">
-        <v>15.61</v>
+        <v>15.71</v>
       </c>
       <c r="H38" s="1">
-        <v>15.23</v>
+        <v>15.35</v>
       </c>
       <c r="I38" s="1">
-        <v>14.68</v>
+        <v>14.87</v>
       </c>
       <c r="J38" s="1">
-        <v>14.86</v>
+        <v>15.18</v>
       </c>
       <c r="K38" s="1">
-        <v>15</v>
+        <v>15.4</v>
       </c>
       <c r="L38" s="1">
-        <v>15.14</v>
+        <v>15.64</v>
       </c>
     </row>
     <row r="39" spans="1:12" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -2170,37 +2173,37 @@
         <v>46935</v>
       </c>
       <c r="B39" s="1">
-        <v>21.65</v>
+        <v>22.25</v>
       </c>
       <c r="C39" s="1">
-        <v>20.92</v>
+        <v>21.46</v>
       </c>
       <c r="D39" s="1">
-        <v>20.09</v>
+        <v>20.52</v>
       </c>
       <c r="E39" s="1">
-        <v>18.04</v>
+        <v>18.02</v>
       </c>
       <c r="F39" s="1">
-        <v>16.739999999999998</v>
+        <v>16.88</v>
       </c>
       <c r="G39" s="1">
-        <v>15.69</v>
+        <v>15.79</v>
       </c>
       <c r="H39" s="1">
-        <v>15.03</v>
+        <v>15.43</v>
       </c>
       <c r="I39" s="1">
-        <v>14.77</v>
+        <v>14.99</v>
       </c>
       <c r="J39" s="1">
-        <v>14.9</v>
+        <v>15.38</v>
       </c>
       <c r="K39" s="1">
-        <v>15.04</v>
+        <v>15.59</v>
       </c>
       <c r="L39" s="1">
-        <v>15.22</v>
+        <v>15.8</v>
       </c>
     </row>
     <row r="40" spans="1:12" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -2208,37 +2211,37 @@
         <v>47119</v>
       </c>
       <c r="B40" s="1">
-        <v>21.71</v>
+        <v>22.37</v>
       </c>
       <c r="C40" s="1">
-        <v>21.02</v>
+        <v>21.59</v>
       </c>
       <c r="D40" s="1">
-        <v>20.2</v>
+        <v>20.68</v>
       </c>
       <c r="E40" s="1">
-        <v>18.11</v>
+        <v>18.36</v>
       </c>
       <c r="F40" s="1">
-        <v>16.8</v>
+        <v>16.829999999999998</v>
       </c>
       <c r="G40" s="1">
-        <v>15.75</v>
+        <v>15.85</v>
       </c>
       <c r="H40" s="1">
-        <v>15.36</v>
+        <v>15.23</v>
       </c>
       <c r="I40" s="1">
-        <v>14.82</v>
+        <v>15.01</v>
       </c>
       <c r="J40" s="1">
-        <v>14.95</v>
+        <v>15.47</v>
       </c>
       <c r="K40" s="1">
-        <v>15.1</v>
+        <v>15.7</v>
       </c>
       <c r="L40" s="1">
-        <v>15.28</v>
+        <v>15.91</v>
       </c>
     </row>
     <row r="41" spans="1:12" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -2284,41 +2287,43 @@
         <v>10959</v>
       </c>
       <c r="B42" s="1">
-        <v>22.05</v>
+        <v>22.79</v>
       </c>
       <c r="C42" s="1">
-        <v>21.36</v>
+        <v>22</v>
       </c>
       <c r="D42" s="1">
-        <v>20.54</v>
+        <v>21.07</v>
       </c>
       <c r="E42" s="1">
-        <v>18.440000000000001</v>
+        <v>18.72</v>
       </c>
       <c r="F42" s="1">
-        <v>17.13</v>
+        <v>17.18</v>
       </c>
       <c r="G42" s="1">
-        <v>16.09</v>
+        <v>16.190000000000001</v>
       </c>
       <c r="H42" s="1">
-        <v>15.42</v>
+        <v>15.57</v>
       </c>
       <c r="I42" s="1">
-        <v>15.16</v>
+        <v>15.33</v>
       </c>
       <c r="J42" s="1">
-        <v>15.28</v>
+        <v>15.78</v>
       </c>
       <c r="K42" s="1">
-        <v>15.43</v>
+        <v>16.04</v>
       </c>
       <c r="L42" s="1">
-        <v>15.61</v>
+        <v>16.309999999999999</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="2"/>
+      <c r="A43" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -2379,7 +2384,7 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -2422,7 +2427,9 @@
       <c r="L49" s="1"/>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A50" s="2"/>
+      <c r="A50" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -2437,7 +2444,7 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -2453,7 +2460,7 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -2467,22 +2474,6 @@
       <c r="K52" s="1"/>
       <c r="L52" s="1"/>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A53" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
-      <c r="G53" s="1"/>
-      <c r="H53" s="1"/>
-      <c r="I53" s="1"/>
-      <c r="J53" s="1"/>
-      <c r="K53" s="1"/>
-      <c r="L53" s="1"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/ddeprofit.xlsx
+++ b/ddeprofit.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\planilhas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66B26B5F-434A-406C-BB30-B00CB9B665AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35E27688-0B5D-4178-B4CE-309E42FFC8E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dde profit" sheetId="12" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
-    <definedName name="superficie_de_volatilidade_de_dolar" localSheetId="1">base_b3!$A$1:$L$52</definedName>
+    <definedName name="superficie_de_volatilidade_de_dolar" localSheetId="1">base_b3!$A$1:$L$51</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -178,19 +178,19 @@
     <t>GLDFUT</t>
   </si>
   <si>
-    <t xml:space="preserve">  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Atualizado em: 26/09/2025 </t>
+    <t xml:space="preserve">   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                                                                                                                                                           Download do arquivo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Atualizado em: 03/10/2025 </t>
   </si>
   <si>
     <t>Delta%</t>
   </si>
   <si>
-    <t xml:space="preserve">   * A superfície de volatilidade de dólar é construída com base nas informações coletadas por um pool de Informantes às 18h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                                                                                                                                                                        Download do arquivo </t>
+    <t xml:space="preserve">  * A superfície de volatilidade de dólar é construída com base nas informações coletadas por um pool de Informantes às 18h</t>
   </si>
 </sst>
 </file>
@@ -300,49 +300,49 @@
       <ddeItem name="DI1FUT.ABE" advise="1">
         <values>
           <value>
-            <val>13.36</val>
+            <val>13.5</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="DI1FUT.FEC" advise="1">
         <values>
           <value>
-            <val>13.365</val>
+            <val>13.465000000000002</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="DI1FUT.MAX" advise="1">
         <values>
           <value>
-            <val>13.39</val>
+            <val>13.57</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="DI1FUT.MIN" advise="1">
         <values>
           <value>
-            <val>13.315</val>
+            <val>13.49</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="DI1FUT.NEG" advise="1">
         <values>
           <value>
-            <val>23720</val>
+            <val>41347</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="DI1FUT.ULT" advise="1">
         <values>
           <value>
-            <val>13.315</val>
+            <val>13.51</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="DI1FUT.VAR" advise="1">
         <values>
           <value>
-            <val>-0.37411148522258486</val>
+            <val>0.33419977720015481</val>
           </value>
         </values>
       </ddeItem>
@@ -356,56 +356,56 @@
       <ddeItem name="DI1FUT.VOL" advise="1">
         <values>
           <value>
-            <val>20121539007.73</val>
+            <val>32194605757.099998</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="DOLINDEX.ABE" advise="1">
         <values>
           <value>
-            <val>98.184218000000001</val>
+            <val>97.745896000000002</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="DOLINDEX.FEC" advise="1">
         <values>
           <value>
-            <val>98.184218000000001</val>
+            <val>97.745896000000002</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="DOLINDEX.MAX" advise="1">
         <values>
           <value>
-            <val>98.194982999999993</val>
+            <val>98.064409999999995</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="DOLINDEX.MIN" advise="1">
         <values>
           <value>
-            <val>98.151262000000003</val>
+            <val>97.641043999999994</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="DOLINDEX.NEG" advise="1">
         <values>
           <value>
-            <val>2752</val>
+            <val>3856</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="DOLINDEX.ULT" advise="1">
         <values>
           <value>
-            <val>98.177357999999998</val>
+            <val>97.992780999999994</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="DOLINDEX.VAR" advise="1">
         <values>
           <value>
-            <val>-6.9868662599219533E-3</val>
+            <val>0.25257837935211569</val>
           </value>
         </values>
       </ddeItem>
@@ -419,119 +419,119 @@
       <ddeItem name="DOLINDEX.VOL" advise="1">
         <values>
           <value>
-            <val>270156.73265899997</val>
+            <val>377327.496224</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="FRP0.ABE" advise="1">
         <values>
           <value>
-            <val>3.2</val>
+            <val>37</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="FRP0.FEC" advise="1">
         <values>
           <value>
-            <val>5.8000000000000007</val>
+            <val>39.6</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="FRP0.MAX" advise="1">
         <values>
           <value>
-            <val>3.7</val>
+            <val>37.5</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="FRP0.MIN" advise="1">
         <values>
           <value>
-            <val>2.8</val>
+            <val>36.9</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="FRP0.NEG" advise="1">
         <values>
           <value>
-            <val>521</val>
+            <val>125</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="FRP0.ULT" advise="1">
         <values>
           <value>
-            <val>3.3</val>
+            <val>37.1</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="FRP0.VAR" advise="1">
         <values>
           <value>
-            <val>-43.103448275862064</val>
+            <val>-6.313131313131322</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="FRP0.VEN" advise="1">
         <values>
           <value t="str">
-            <val>29/09/2025</val>
+            <val>30/10/2025</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="FRP0.VOL" advise="1">
         <values>
           <value>
-            <val>10412060350</val>
+            <val>7036587825</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="GLDFUT.ABE" advise="1">
         <values>
           <value>
-            <val>3794</val>
+            <val>3889</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="GLDFUT.FEC" advise="1">
         <values>
           <value>
-            <val>3789</val>
+            <val>3881.5</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="GLDFUT.MAX" advise="1">
         <values>
           <value>
-            <val>3819.25</val>
+            <val>3922.75</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="GLDFUT.MIN" advise="1">
         <values>
           <value>
-            <val>3785.25</val>
+            <val>3887.25</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="GLDFUT.NEG" advise="1">
         <values>
           <value>
-            <val>1252</val>
+            <val>269</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="GLDFUT.ULT" advise="1">
         <values>
           <value>
-            <val>3793</val>
+            <val>3917</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="GLDFUT.VAR" advise="1">
         <values>
           <value>
-            <val>0.10556875164951407</val>
+            <val>0.9145948731160729</val>
           </value>
         </values>
       </ddeItem>
@@ -545,7 +545,7 @@
       <ddeItem name="GLDFUT.VOL" advise="1">
         <values>
           <value>
-            <val>54854761.770000003</val>
+            <val>6478637.7400000002</val>
           </value>
         </values>
       </ddeItem>
@@ -553,28 +553,28 @@
       <ddeItem name="USD/BRL.ABE" advise="1">
         <values>
           <value>
-            <val>5.3441000000000001</val>
+            <val>5.3368000000000002</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="USD/BRL.FEC" advise="1">
         <values>
           <value>
-            <val>5.3441000000000001</val>
+            <val>5.3368000000000002</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="USD/BRL.MAX" advise="1">
         <values>
           <value>
-            <val>5.3469340000000001</val>
+            <val>5.3384070000000001</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="USD/BRL.MIN" advise="1">
         <values>
           <value>
-            <val>5.3441000000000001</val>
+            <val>5.3368000000000002</val>
           </value>
         </values>
       </ddeItem>
@@ -588,14 +588,14 @@
       <ddeItem name="USD/BRL.ULT" advise="1">
         <values>
           <value>
-            <val>5.3469340000000001</val>
+            <val>5.3384070000000001</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="USD/BRL.VAR" advise="1">
         <values>
           <value>
-            <val>5.3030444789570197E-2</val>
+            <val>3.011167740967835E-2</val>
           </value>
         </values>
       </ddeItem>
@@ -609,7 +609,7 @@
       <ddeItem name="USD/BRL.VOL" advise="1">
         <values>
           <value>
-            <val>16.035133999999999</val>
+            <val>16.012007000000001</val>
           </value>
         </values>
       </ddeItem>
@@ -623,49 +623,49 @@
       <ddeItem name="WDOFUT.MAX" advise="1">
         <values>
           <value>
-            <val>5370</val>
+            <val>5399</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="WDOFUT.MIN" advise="1">
         <values>
           <value>
-            <val>5338</val>
+            <val>5361.5</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="WDOFUT.NEG" advise="1">
         <values>
           <value>
-            <val>536370</val>
+            <val>641795</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="WDOFUT.ULT" advise="1">
         <values>
           <value>
-            <val>5354.5</val>
+            <val>5378</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="WDOFUT.VAR" advise="1">
         <values>
           <value>
-            <val>-0.27006891413671497</val>
+            <val>-1.8590816136835997E-2</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="WDOFUT.VEN" advise="1">
         <values>
           <value t="str">
-            <val>01/10/2025</val>
+            <val>03/11/2025</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="WDOFUT.VOL" advise="1">
         <values>
           <value>
-            <val>122117020770</val>
+            <val>142173145050</val>
           </value>
         </values>
       </ddeItem>
@@ -977,8 +977,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="J1:S7"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="U20" sqref="U20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1027,35 +1027,35 @@
       </c>
       <c r="K2" cm="1">
         <f t="array" ref="K2">[1]!DI1FUT.ULT</f>
-        <v>13.315</v>
+        <v>13.51</v>
       </c>
       <c r="L2" cm="1">
         <f t="array" ref="L2">[1]!DI1FUT.ABE</f>
-        <v>13.36</v>
+        <v>13.5</v>
       </c>
       <c r="M2" cm="1">
         <f t="array" ref="M2">[1]!DI1FUT.MAX</f>
-        <v>13.39</v>
+        <v>13.57</v>
       </c>
       <c r="N2" cm="1">
         <f t="array" ref="N2">[1]!DI1FUT.MIN</f>
-        <v>13.315</v>
+        <v>13.49</v>
       </c>
       <c r="O2" cm="1">
         <f t="array" ref="O2">[1]!DI1FUT.FEC</f>
-        <v>13.365</v>
+        <v>13.465000000000002</v>
       </c>
       <c r="P2" cm="1">
         <f t="array" ref="P2">[1]!DI1FUT.VAR</f>
-        <v>-0.37411148522258486</v>
+        <v>0.33419977720015481</v>
       </c>
       <c r="Q2" cm="1">
         <f t="array" ref="Q2">[1]!DI1FUT.NEG</f>
-        <v>23720</v>
+        <v>41347</v>
       </c>
       <c r="R2" cm="1">
         <f t="array" ref="R2">[1]!DI1FUT.VOL</f>
-        <v>20121539007.73</v>
+        <v>32194605757.099998</v>
       </c>
       <c r="S2" t="str" cm="1">
         <f t="array" ref="S2">[1]!DI1FUT.VEN</f>
@@ -1068,39 +1068,39 @@
       </c>
       <c r="K3" cm="1">
         <f t="array" ref="K3">[1]!FRP0.ULT</f>
-        <v>3.3</v>
+        <v>37.1</v>
       </c>
       <c r="L3" cm="1">
         <f t="array" ref="L3">[1]!FRP0.ABE</f>
-        <v>3.2</v>
+        <v>37</v>
       </c>
       <c r="M3" cm="1">
         <f t="array" ref="M3">[1]!FRP0.MAX</f>
-        <v>3.7</v>
+        <v>37.5</v>
       </c>
       <c r="N3" cm="1">
         <f t="array" ref="N3">[1]!FRP0.MIN</f>
-        <v>2.8</v>
+        <v>36.9</v>
       </c>
       <c r="O3" cm="1">
         <f t="array" ref="O3">[1]!FRP0.FEC</f>
-        <v>5.8000000000000007</v>
+        <v>39.6</v>
       </c>
       <c r="P3" cm="1">
         <f t="array" ref="P3">[1]!FRP0.VAR</f>
-        <v>-43.103448275862064</v>
+        <v>-6.313131313131322</v>
       </c>
       <c r="Q3" cm="1">
         <f t="array" ref="Q3">[1]!FRP0.NEG</f>
-        <v>521</v>
+        <v>125</v>
       </c>
       <c r="R3" cm="1">
         <f t="array" ref="R3">[1]!FRP0.VOL</f>
-        <v>10412060350</v>
+        <v>7036587825</v>
       </c>
       <c r="S3" t="str" cm="1">
         <f t="array" ref="S3">[1]!FRP0.VEN</f>
-        <v>29/09/2025</v>
+        <v>30/10/2025</v>
       </c>
     </row>
     <row r="4" spans="10:19" x14ac:dyDescent="0.25">
@@ -1109,27 +1109,27 @@
       </c>
       <c r="K4" cm="1">
         <f t="array" ref="K4">[1]!'USD/BRL.ULT'</f>
-        <v>5.3469340000000001</v>
+        <v>5.3384070000000001</v>
       </c>
       <c r="L4" cm="1">
         <f t="array" ref="L4">[1]!'USD/BRL.ABE'</f>
-        <v>5.3441000000000001</v>
+        <v>5.3368000000000002</v>
       </c>
       <c r="M4" cm="1">
         <f t="array" ref="M4">[1]!'USD/BRL.MAX'</f>
-        <v>5.3469340000000001</v>
+        <v>5.3384070000000001</v>
       </c>
       <c r="N4" cm="1">
         <f t="array" ref="N4">[1]!'USD/BRL.MIN'</f>
-        <v>5.3441000000000001</v>
+        <v>5.3368000000000002</v>
       </c>
       <c r="O4" cm="1">
         <f t="array" ref="O4">[1]!'USD/BRL.FEC'</f>
-        <v>5.3441000000000001</v>
+        <v>5.3368000000000002</v>
       </c>
       <c r="P4" cm="1">
         <f t="array" ref="P4">[1]!'USD/BRL.VAR'</f>
-        <v>5.3030444789570197E-2</v>
+        <v>3.011167740967835E-2</v>
       </c>
       <c r="Q4" cm="1">
         <f t="array" ref="Q4">[1]!'USD/BRL.NEG'</f>
@@ -1137,7 +1137,7 @@
       </c>
       <c r="R4" cm="1">
         <f t="array" ref="R4">[1]!'USD/BRL.VOL'</f>
-        <v>16.035133999999999</v>
+        <v>16.012007000000001</v>
       </c>
       <c r="S4" t="str" cm="1">
         <f t="array" ref="S4">[1]!'USD/BRL.VEN'</f>
@@ -1150,7 +1150,7 @@
       </c>
       <c r="K5" cm="1">
         <f t="array" ref="K5">[1]!WDOFUT.ULT</f>
-        <v>5354.5</v>
+        <v>5378</v>
       </c>
       <c r="L5" cm="1">
         <f t="array" ref="L5">[1]!WDOFUT.ABE</f>
@@ -1158,30 +1158,30 @@
       </c>
       <c r="M5" cm="1">
         <f t="array" ref="M5">[1]!WDOFUT.MAX</f>
-        <v>5370</v>
+        <v>5399</v>
       </c>
       <c r="N5" cm="1">
         <f t="array" ref="N5">[1]!WDOFUT.MIN</f>
-        <v>5338</v>
+        <v>5361.5</v>
       </c>
       <c r="O5">
-        <v>5354.5</v>
+        <v>5378</v>
       </c>
       <c r="P5" cm="1">
         <f t="array" ref="P5">[1]!WDOFUT.VAR</f>
-        <v>-0.27006891413671497</v>
+        <v>-1.8590816136835997E-2</v>
       </c>
       <c r="Q5" cm="1">
         <f t="array" ref="Q5">[1]!WDOFUT.NEG</f>
-        <v>536370</v>
+        <v>641795</v>
       </c>
       <c r="R5" cm="1">
         <f t="array" ref="R5">[1]!WDOFUT.VOL</f>
-        <v>122117020770</v>
+        <v>142173145050</v>
       </c>
       <c r="S5" t="str" cm="1">
         <f t="array" ref="S5">[1]!WDOFUT.VEN</f>
-        <v>01/10/2025</v>
+        <v>03/11/2025</v>
       </c>
     </row>
     <row r="6" spans="10:19" x14ac:dyDescent="0.25">
@@ -1190,35 +1190,35 @@
       </c>
       <c r="K6" cm="1">
         <f t="array" ref="K6">[1]!DOLINDEX.ULT</f>
-        <v>98.177357999999998</v>
+        <v>97.992780999999994</v>
       </c>
       <c r="L6" cm="1">
         <f t="array" ref="L6">[1]!DOLINDEX.ABE</f>
-        <v>98.184218000000001</v>
+        <v>97.745896000000002</v>
       </c>
       <c r="M6" cm="1">
         <f t="array" ref="M6">[1]!DOLINDEX.MAX</f>
-        <v>98.194982999999993</v>
+        <v>98.064409999999995</v>
       </c>
       <c r="N6" cm="1">
         <f t="array" ref="N6">[1]!DOLINDEX.MIN</f>
-        <v>98.151262000000003</v>
+        <v>97.641043999999994</v>
       </c>
       <c r="O6" cm="1">
         <f t="array" ref="O6">[1]!DOLINDEX.FEC</f>
-        <v>98.184218000000001</v>
+        <v>97.745896000000002</v>
       </c>
       <c r="P6" cm="1">
         <f t="array" ref="P6">[1]!DOLINDEX.VAR</f>
-        <v>-6.9868662599219533E-3</v>
+        <v>0.25257837935211569</v>
       </c>
       <c r="Q6" cm="1">
         <f t="array" ref="Q6">[1]!DOLINDEX.NEG</f>
-        <v>2752</v>
+        <v>3856</v>
       </c>
       <c r="R6" cm="1">
         <f t="array" ref="R6">[1]!DOLINDEX.VOL</f>
-        <v>270156.73265899997</v>
+        <v>377327.496224</v>
       </c>
       <c r="S6" t="str" cm="1">
         <f t="array" ref="S6">[1]!DOLINDEX.VEN</f>
@@ -1231,35 +1231,35 @@
       </c>
       <c r="K7" cm="1">
         <f t="array" ref="K7">[1]!GLDFUT.ULT</f>
-        <v>3793</v>
+        <v>3917</v>
       </c>
       <c r="L7" cm="1">
         <f t="array" ref="L7">[1]!GLDFUT.ABE</f>
-        <v>3794</v>
+        <v>3889</v>
       </c>
       <c r="M7" cm="1">
         <f t="array" ref="M7">[1]!GLDFUT.MAX</f>
-        <v>3819.25</v>
+        <v>3922.75</v>
       </c>
       <c r="N7" cm="1">
         <f t="array" ref="N7">[1]!GLDFUT.MIN</f>
-        <v>3785.25</v>
+        <v>3887.25</v>
       </c>
       <c r="O7" cm="1">
         <f t="array" ref="O7">[1]!GLDFUT.FEC</f>
-        <v>3789</v>
+        <v>3881.5</v>
       </c>
       <c r="P7" cm="1">
         <f t="array" ref="P7">[1]!GLDFUT.VAR</f>
-        <v>0.10556875164951407</v>
+        <v>0.9145948731160729</v>
       </c>
       <c r="Q7" cm="1">
         <f t="array" ref="Q7">[1]!GLDFUT.NEG</f>
-        <v>1252</v>
+        <v>269</v>
       </c>
       <c r="R7" cm="1">
         <f t="array" ref="R7">[1]!GLDFUT.VOL</f>
-        <v>54854761.770000003</v>
+        <v>6478637.7400000002</v>
       </c>
       <c r="S7" t="str" cm="1">
         <f t="array" ref="S7">[1]!GLDFUT.VEN</f>
@@ -1274,9 +1274,9 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Planilha10"/>
-  <dimension ref="A1:L52"/>
+  <dimension ref="A1:L51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
@@ -1367,12 +1367,12 @@
     </row>
     <row r="17" spans="1:12" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B18" s="4">
         <v>1</v>
@@ -1410,920 +1410,896 @@
     </row>
     <row r="19" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
-        <v>45931</v>
+        <v>45962</v>
       </c>
       <c r="B19" s="4">
-        <v>14.31</v>
+        <v>17.79</v>
       </c>
       <c r="C19" s="4">
-        <v>13.35</v>
+        <v>16.23</v>
       </c>
       <c r="D19" s="4">
-        <v>12.39</v>
+        <v>14.67</v>
       </c>
       <c r="E19" s="4">
-        <v>10.74</v>
+        <v>11.95</v>
       </c>
       <c r="F19" s="4">
-        <v>9.8800000000000008</v>
+        <v>10.79</v>
       </c>
       <c r="G19" s="4">
-        <v>9.27</v>
+        <v>9.9700000000000006</v>
       </c>
       <c r="H19" s="4">
-        <v>8.82</v>
+        <v>9.5500000000000007</v>
       </c>
       <c r="I19" s="4">
-        <v>8.36</v>
+        <v>9.09</v>
       </c>
       <c r="J19" s="4">
-        <v>8.01</v>
+        <v>9.39</v>
       </c>
       <c r="K19" s="4">
-        <v>8.6999999999999993</v>
+        <v>9.49</v>
       </c>
       <c r="L19" s="4">
-        <v>9.83</v>
+        <v>9.58</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
-        <v>45962</v>
+        <v>45992</v>
       </c>
       <c r="B20" s="4">
-        <v>15.84</v>
+        <v>16.52</v>
       </c>
       <c r="C20" s="4">
-        <v>15.22</v>
+        <v>16.18</v>
       </c>
       <c r="D20" s="4">
-        <v>14.52</v>
+        <v>15.66</v>
       </c>
       <c r="E20" s="4">
-        <v>12.79</v>
+        <v>13.17</v>
       </c>
       <c r="F20" s="4">
-        <v>11.45</v>
+        <v>11.66</v>
       </c>
       <c r="G20" s="4">
-        <v>10.71</v>
+        <v>10.82</v>
       </c>
       <c r="H20" s="4">
         <v>10.18</v>
       </c>
       <c r="I20" s="4">
-        <v>9.64</v>
+        <v>9.83</v>
       </c>
       <c r="J20" s="4">
-        <v>9.2899999999999991</v>
+        <v>10.24</v>
       </c>
       <c r="K20" s="4">
-        <v>9.32</v>
+        <v>10.15</v>
       </c>
       <c r="L20" s="4">
-        <v>9.3699999999999992</v>
+        <v>9.99</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
-        <v>45992</v>
+        <v>46023</v>
       </c>
       <c r="B21" s="4">
-        <v>16.7</v>
+        <v>17.420000000000002</v>
       </c>
       <c r="C21" s="4">
-        <v>16.059999999999999</v>
+        <v>16.95</v>
       </c>
       <c r="D21" s="4">
-        <v>15.28</v>
+        <v>16.29</v>
       </c>
       <c r="E21" s="4">
-        <v>13.13</v>
+        <v>13.73</v>
       </c>
       <c r="F21" s="4">
-        <v>12.23</v>
+        <v>12.15</v>
       </c>
       <c r="G21" s="4">
-        <v>11.28</v>
+        <v>11.29</v>
       </c>
       <c r="H21" s="4">
-        <v>10.73</v>
+        <v>10.63</v>
       </c>
       <c r="I21" s="4">
-        <v>10.18</v>
+        <v>10.34</v>
       </c>
       <c r="J21" s="4">
-        <v>9.8699999999999992</v>
+        <v>10.81</v>
       </c>
       <c r="K21" s="4">
-        <v>9.91</v>
+        <v>10.8</v>
       </c>
       <c r="L21" s="4">
-        <v>9.9700000000000006</v>
+        <v>10.78</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
-        <v>46023</v>
+        <v>46054</v>
       </c>
       <c r="B22" s="4">
-        <v>17.39</v>
+        <v>18.07</v>
       </c>
       <c r="C22" s="4">
-        <v>16.66</v>
+        <v>17.54</v>
       </c>
       <c r="D22" s="4">
-        <v>15.84</v>
+        <v>16.82</v>
       </c>
       <c r="E22" s="4">
-        <v>13.92</v>
+        <v>14.23</v>
       </c>
       <c r="F22" s="4">
-        <v>12.45</v>
+        <v>12.64</v>
       </c>
       <c r="G22" s="4">
-        <v>11.67</v>
+        <v>11.78</v>
       </c>
       <c r="H22" s="4">
-        <v>11.14</v>
+        <v>11.1</v>
       </c>
       <c r="I22" s="4">
-        <v>10.62</v>
+        <v>10.86</v>
       </c>
       <c r="J22" s="4">
-        <v>10.45</v>
+        <v>11.37</v>
       </c>
       <c r="K22" s="4">
-        <v>10.53</v>
+        <v>11.43</v>
       </c>
       <c r="L22" s="4">
-        <v>10.66</v>
+        <v>11.47</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
-        <v>46054</v>
+        <v>46082</v>
       </c>
       <c r="B23" s="4">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="C23" s="4">
-        <v>17.329999999999998</v>
+        <v>17.989999999999998</v>
       </c>
       <c r="D23" s="4">
-        <v>16.53</v>
+        <v>17.3</v>
       </c>
       <c r="E23" s="4">
-        <v>14.47</v>
+        <v>14.72</v>
       </c>
       <c r="F23" s="4">
-        <v>13.17</v>
+        <v>13.15</v>
       </c>
       <c r="G23" s="4">
-        <v>12.12</v>
+        <v>12.29</v>
       </c>
       <c r="H23" s="4">
-        <v>11.43</v>
+        <v>11.63</v>
       </c>
       <c r="I23" s="4">
-        <v>11.12</v>
+        <v>11.39</v>
       </c>
       <c r="J23" s="4">
-        <v>11.12</v>
+        <v>11.92</v>
       </c>
       <c r="K23" s="4">
-        <v>11.24</v>
+        <v>11.96</v>
       </c>
       <c r="L23" s="4">
-        <v>11.44</v>
+        <v>11.98</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
-        <v>46082</v>
+        <v>46113</v>
       </c>
       <c r="B24" s="4">
+        <v>18.7</v>
+      </c>
+      <c r="C24" s="4">
         <v>18.27</v>
       </c>
-      <c r="C24" s="4">
-        <v>17.53</v>
-      </c>
       <c r="D24" s="4">
-        <v>16.7</v>
+        <v>17.649999999999999</v>
       </c>
       <c r="E24" s="4">
-        <v>14.8</v>
+        <v>15.07</v>
       </c>
       <c r="F24" s="4">
-        <v>13.37</v>
+        <v>13.54</v>
       </c>
       <c r="G24" s="4">
-        <v>12.61</v>
+        <v>12.67</v>
       </c>
       <c r="H24" s="4">
-        <v>12.1</v>
+        <v>12.04</v>
       </c>
       <c r="I24" s="4">
-        <v>11.62</v>
+        <v>11.78</v>
       </c>
       <c r="J24" s="4">
-        <v>11.58</v>
+        <v>12.32</v>
       </c>
       <c r="K24" s="4">
-        <v>11.69</v>
+        <v>12.3</v>
       </c>
       <c r="L24" s="4">
-        <v>11.85</v>
+        <v>12.27</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
-        <v>46113</v>
+        <v>46143</v>
       </c>
       <c r="B25" s="4">
-        <v>18.41</v>
+        <v>19.03</v>
       </c>
       <c r="C25" s="4">
-        <v>17.739999999999998</v>
+        <v>18.61</v>
       </c>
       <c r="D25" s="4">
-        <v>16.940000000000001</v>
+        <v>18</v>
       </c>
       <c r="E25" s="4">
-        <v>14.75</v>
+        <v>15.24</v>
       </c>
       <c r="F25" s="4">
-        <v>13.81</v>
+        <v>14.14</v>
       </c>
       <c r="G25" s="4">
-        <v>12.8</v>
+        <v>13.1</v>
       </c>
       <c r="H25" s="4">
-        <v>12.39</v>
+        <v>12.59</v>
       </c>
       <c r="I25" s="4">
-        <v>11.91</v>
+        <v>12.17</v>
       </c>
       <c r="J25" s="4">
-        <v>11.88</v>
+        <v>12.69</v>
       </c>
       <c r="K25" s="4">
-        <v>11.95</v>
+        <v>12.66</v>
       </c>
       <c r="L25" s="4">
-        <v>12.07</v>
+        <v>12.61</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
-        <v>46143</v>
+        <v>46174</v>
       </c>
       <c r="B26" s="4">
-        <v>18.649999999999999</v>
+        <v>18.89</v>
       </c>
       <c r="C26" s="4">
-        <v>18.02</v>
+        <v>18.27</v>
       </c>
       <c r="D26" s="4">
-        <v>17.28</v>
+        <v>17.54</v>
       </c>
       <c r="E26" s="4">
-        <v>15.35</v>
+        <v>15.65</v>
       </c>
       <c r="F26" s="4">
-        <v>14.13</v>
+        <v>14.45</v>
       </c>
       <c r="G26" s="4">
-        <v>13.12</v>
+        <v>13.46</v>
       </c>
       <c r="H26" s="4">
-        <v>12.46</v>
+        <v>12.8</v>
       </c>
       <c r="I26" s="4">
-        <v>12.14</v>
+        <v>12.48</v>
       </c>
       <c r="J26" s="4">
-        <v>12.15</v>
+        <v>12.47</v>
       </c>
       <c r="K26" s="4">
-        <v>12.23</v>
+        <v>12.54</v>
       </c>
       <c r="L26" s="4">
-        <v>12.35</v>
+        <v>12.67</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
-        <v>46174</v>
+        <v>46204</v>
       </c>
       <c r="B27" s="4">
-        <v>19.03</v>
+        <v>19.64</v>
       </c>
       <c r="C27" s="4">
-        <v>18.41</v>
+        <v>19.22</v>
       </c>
       <c r="D27" s="4">
-        <v>17.68</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="E27" s="4">
-        <v>15.77</v>
+        <v>15.99</v>
       </c>
       <c r="F27" s="4">
-        <v>14.4</v>
+        <v>14.67</v>
       </c>
       <c r="G27" s="4">
-        <v>13.66</v>
+        <v>13.59</v>
       </c>
       <c r="H27" s="4">
-        <v>12.88</v>
+        <v>12.97</v>
       </c>
       <c r="I27" s="4">
-        <v>12.55</v>
+        <v>12.72</v>
       </c>
       <c r="J27" s="4">
-        <v>12.54</v>
+        <v>13.31</v>
       </c>
       <c r="K27" s="4">
-        <v>12.6</v>
+        <v>13.28</v>
       </c>
       <c r="L27" s="4">
-        <v>12.7</v>
+        <v>13.24</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
-        <v>46204</v>
+        <v>46235</v>
       </c>
       <c r="B28" s="4">
-        <v>19.18</v>
+        <v>20.05</v>
       </c>
       <c r="C28" s="4">
-        <v>18.48</v>
+        <v>19.61</v>
       </c>
       <c r="D28" s="4">
-        <v>17.68</v>
+        <v>18.98</v>
       </c>
       <c r="E28" s="4">
-        <v>15.78</v>
+        <v>16.38</v>
       </c>
       <c r="F28" s="4">
-        <v>14.4</v>
+        <v>15.05</v>
       </c>
       <c r="G28" s="4">
-        <v>13.65</v>
+        <v>13.98</v>
       </c>
       <c r="H28" s="4">
-        <v>13.17</v>
+        <v>13.36</v>
       </c>
       <c r="I28" s="4">
-        <v>12.72</v>
+        <v>13.12</v>
       </c>
       <c r="J28" s="4">
-        <v>12.79</v>
+        <v>13.7</v>
       </c>
       <c r="K28" s="4">
-        <v>12.88</v>
+        <v>13.69</v>
       </c>
       <c r="L28" s="4">
-        <v>13.01</v>
+        <v>13.66</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
-        <v>46235</v>
+        <v>46266</v>
       </c>
       <c r="B29" s="4">
-        <v>19.52</v>
+        <v>19.7</v>
       </c>
       <c r="C29" s="4">
-        <v>18.79</v>
+        <v>19.059999999999999</v>
       </c>
       <c r="D29" s="4">
-        <v>17.98</v>
+        <v>18.309999999999999</v>
       </c>
       <c r="E29" s="4">
-        <v>16.09</v>
+        <v>16.37</v>
       </c>
       <c r="F29" s="4">
-        <v>14.71</v>
+        <v>15</v>
       </c>
       <c r="G29" s="4">
-        <v>13.95</v>
+        <v>14.15</v>
       </c>
       <c r="H29" s="4">
-        <v>13.47</v>
+        <v>13.5</v>
       </c>
       <c r="I29" s="4">
-        <v>13.01</v>
+        <v>13.21</v>
       </c>
       <c r="J29" s="4">
-        <v>13.06</v>
+        <v>13.26</v>
       </c>
       <c r="K29" s="4">
-        <v>13.18</v>
+        <v>13.36</v>
       </c>
       <c r="L29" s="4">
-        <v>13.34</v>
+        <v>13.51</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
-        <v>46266</v>
+        <v>46296</v>
       </c>
       <c r="B30" s="4">
-        <v>19.670000000000002</v>
+        <v>19.82</v>
       </c>
       <c r="C30" s="4">
-        <v>19.03</v>
+        <v>19.190000000000001</v>
       </c>
       <c r="D30" s="4">
-        <v>18.25</v>
+        <v>18.440000000000001</v>
       </c>
       <c r="E30" s="4">
-        <v>16.02</v>
+        <v>16.510000000000002</v>
       </c>
       <c r="F30" s="4">
-        <v>15.1</v>
+        <v>15.29</v>
       </c>
       <c r="G30" s="4">
-        <v>14.2</v>
+        <v>14.31</v>
       </c>
       <c r="H30" s="4">
-        <v>13.72</v>
+        <v>13.67</v>
       </c>
       <c r="I30" s="4">
-        <v>13.19</v>
+        <v>13.38</v>
       </c>
       <c r="J30" s="4">
-        <v>13.23</v>
+        <v>13.44</v>
       </c>
       <c r="K30" s="4">
-        <v>13.31</v>
+        <v>13.55</v>
       </c>
       <c r="L30" s="4">
-        <v>13.43</v>
+        <v>13.7</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
-        <v>46296</v>
+        <v>46357</v>
       </c>
       <c r="B31" s="4">
-        <v>19.78</v>
+        <v>19.989999999999998</v>
       </c>
       <c r="C31" s="4">
-        <v>19.12</v>
+        <v>19.37</v>
       </c>
       <c r="D31" s="4">
-        <v>18.36</v>
+        <v>18.649999999999999</v>
       </c>
       <c r="E31" s="4">
-        <v>16.440000000000001</v>
+        <v>16.77</v>
       </c>
       <c r="F31" s="4">
-        <v>15.06</v>
+        <v>15.59</v>
       </c>
       <c r="G31" s="4">
-        <v>14.31</v>
+        <v>14.65</v>
       </c>
       <c r="H31" s="4">
-        <v>13.83</v>
+        <v>14.04</v>
       </c>
       <c r="I31" s="4">
-        <v>13.3</v>
+        <v>13.79</v>
       </c>
       <c r="J31" s="4">
-        <v>13.35</v>
+        <v>13.88</v>
       </c>
       <c r="K31" s="4">
-        <v>13.43</v>
+        <v>13.99</v>
       </c>
       <c r="L31" s="4">
-        <v>13.55</v>
+        <v>14.15</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
-        <v>46357</v>
+        <v>46388</v>
       </c>
       <c r="B32" s="4">
-        <v>20.100000000000001</v>
+        <v>20.98</v>
       </c>
       <c r="C32" s="4">
-        <v>19.46</v>
+        <v>20.54</v>
       </c>
       <c r="D32" s="4">
-        <v>18.71</v>
+        <v>19.91</v>
       </c>
       <c r="E32" s="4">
-        <v>16.829999999999998</v>
+        <v>17.27</v>
       </c>
       <c r="F32" s="4">
-        <v>15.62</v>
+        <v>15.94</v>
       </c>
       <c r="G32" s="4">
-        <v>14.65</v>
+        <v>14.88</v>
       </c>
       <c r="H32" s="4">
-        <v>14.01</v>
+        <v>14.28</v>
       </c>
       <c r="I32" s="4">
-        <v>13.75</v>
+        <v>14.06</v>
       </c>
       <c r="J32" s="4">
-        <v>13.77</v>
+        <v>14.7</v>
       </c>
       <c r="K32" s="4">
-        <v>13.88</v>
+        <v>14.7</v>
       </c>
       <c r="L32" s="4">
-        <v>14.04</v>
+        <v>14.69</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
-        <v>46388</v>
+        <v>46478</v>
       </c>
       <c r="B33" s="4">
-        <v>20.440000000000001</v>
+        <v>20.69</v>
       </c>
       <c r="C33" s="4">
-        <v>19.72</v>
+        <v>20.05</v>
       </c>
       <c r="D33" s="4">
-        <v>18.86</v>
+        <v>19.3</v>
       </c>
       <c r="E33" s="4">
-        <v>16.61</v>
+        <v>17.37</v>
       </c>
       <c r="F33" s="4">
-        <v>15.52</v>
+        <v>16.170000000000002</v>
       </c>
       <c r="G33" s="4">
-        <v>14.76</v>
+        <v>15.21</v>
       </c>
       <c r="H33" s="4">
-        <v>14.3</v>
+        <v>14.62</v>
       </c>
       <c r="I33" s="4">
-        <v>13.89</v>
+        <v>14.39</v>
       </c>
       <c r="J33" s="4">
-        <v>14.09</v>
+        <v>14.53</v>
       </c>
       <c r="K33" s="4">
-        <v>14.23</v>
+        <v>14.67</v>
       </c>
       <c r="L33" s="4">
-        <v>14.37</v>
+        <v>14.85</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
-        <v>46478</v>
+        <v>46569</v>
       </c>
       <c r="B34" s="4">
-        <v>20.92</v>
+        <v>21.91</v>
       </c>
       <c r="C34" s="4">
-        <v>20.260000000000002</v>
+        <v>21.39</v>
       </c>
       <c r="D34" s="4">
-        <v>19.48</v>
+        <v>20.68</v>
       </c>
       <c r="E34" s="4">
-        <v>17.48</v>
+        <v>17.97</v>
       </c>
       <c r="F34" s="4">
-        <v>16.23</v>
+        <v>16.579999999999998</v>
       </c>
       <c r="G34" s="4">
-        <v>15.21</v>
+        <v>15.51</v>
       </c>
       <c r="H34" s="4">
-        <v>14.56</v>
+        <v>14.91</v>
       </c>
       <c r="I34" s="4">
-        <v>14.27</v>
+        <v>14.75</v>
       </c>
       <c r="J34" s="4">
-        <v>14.35</v>
+        <v>15.47</v>
       </c>
       <c r="K34" s="4">
-        <v>14.47</v>
+        <v>15.56</v>
       </c>
       <c r="L34" s="4">
-        <v>14.63</v>
+        <v>15.6</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
-        <v>46569</v>
+        <v>46600</v>
       </c>
       <c r="B35" s="1">
-        <v>21.45</v>
+        <v>21.86</v>
       </c>
       <c r="C35" s="1">
-        <v>20.71</v>
+        <v>21.28</v>
       </c>
       <c r="D35" s="1">
-        <v>19.86</v>
+        <v>20.52</v>
       </c>
       <c r="E35" s="1">
-        <v>17.75</v>
+        <v>18.05</v>
       </c>
       <c r="F35" s="1">
-        <v>16.3</v>
+        <v>16.7</v>
       </c>
       <c r="G35" s="1">
-        <v>15.5</v>
+        <v>15.66</v>
       </c>
       <c r="H35" s="1">
-        <v>15.04</v>
+        <v>15.06</v>
       </c>
       <c r="I35" s="1">
-        <v>14.55</v>
+        <v>14.88</v>
       </c>
       <c r="J35" s="1">
-        <v>14.79</v>
+        <v>15.41</v>
       </c>
       <c r="K35" s="1">
-        <v>14.98</v>
+        <v>15.55</v>
       </c>
       <c r="L35" s="1">
-        <v>15.19</v>
+        <v>15.65</v>
       </c>
     </row>
     <row r="36" spans="1:12" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
-        <v>46600</v>
+        <v>46661</v>
       </c>
       <c r="B36" s="1">
-        <v>21.68</v>
+        <v>21.79</v>
       </c>
       <c r="C36" s="1">
-        <v>20.94</v>
+        <v>21.1</v>
       </c>
       <c r="D36" s="1">
-        <v>20.09</v>
+        <v>20.29</v>
       </c>
       <c r="E36" s="1">
-        <v>17.97</v>
+        <v>18.2</v>
       </c>
       <c r="F36" s="1">
-        <v>16.64</v>
+        <v>16.920000000000002</v>
       </c>
       <c r="G36" s="1">
-        <v>15.58</v>
+        <v>15.91</v>
       </c>
       <c r="H36" s="1">
-        <v>14.94</v>
+        <v>15.31</v>
       </c>
       <c r="I36" s="1">
-        <v>14.72</v>
+        <v>15.1</v>
       </c>
       <c r="J36" s="1">
-        <v>14.91</v>
+        <v>15.33</v>
       </c>
       <c r="K36" s="1">
-        <v>15.08</v>
+        <v>15.52</v>
       </c>
       <c r="L36" s="1">
-        <v>15.29</v>
+        <v>15.72</v>
       </c>
     </row>
     <row r="37" spans="1:12" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
-        <v>46661</v>
+        <v>46753</v>
       </c>
       <c r="B37" s="1">
-        <v>22.07</v>
+        <v>22.08</v>
       </c>
       <c r="C37" s="1">
-        <v>21.35</v>
+        <v>21.33</v>
       </c>
       <c r="D37" s="1">
-        <v>20.51</v>
+        <v>20.46</v>
       </c>
       <c r="E37" s="1">
-        <v>18.34</v>
+        <v>18.239999999999998</v>
       </c>
       <c r="F37" s="1">
-        <v>16.989999999999998</v>
+        <v>16.88</v>
       </c>
       <c r="G37" s="1">
-        <v>15.91</v>
+        <v>15.84</v>
       </c>
       <c r="H37" s="1">
-        <v>15.52</v>
+        <v>15.23</v>
       </c>
       <c r="I37" s="1">
-        <v>14.96</v>
+        <v>15.07</v>
       </c>
       <c r="J37" s="1">
-        <v>15.11</v>
+        <v>15.39</v>
       </c>
       <c r="K37" s="1">
-        <v>15.26</v>
+        <v>15.62</v>
       </c>
       <c r="L37" s="1">
-        <v>15.45</v>
+        <v>15.87</v>
       </c>
     </row>
     <row r="38" spans="1:12" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
-        <v>46753</v>
+        <v>46935</v>
       </c>
       <c r="B38" s="1">
-        <v>22.07</v>
+        <v>22.37</v>
       </c>
       <c r="C38" s="1">
-        <v>21.31</v>
+        <v>21.6</v>
       </c>
       <c r="D38" s="1">
-        <v>20.43</v>
+        <v>20.7</v>
       </c>
       <c r="E38" s="1">
-        <v>18.170000000000002</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="F38" s="1">
-        <v>16.66</v>
+        <v>17</v>
       </c>
       <c r="G38" s="1">
-        <v>15.71</v>
+        <v>15.92</v>
       </c>
       <c r="H38" s="1">
-        <v>15.35</v>
+        <v>15.29</v>
       </c>
       <c r="I38" s="1">
-        <v>14.87</v>
+        <v>15.11</v>
       </c>
       <c r="J38" s="1">
-        <v>15.18</v>
+        <v>15.44</v>
       </c>
       <c r="K38" s="1">
-        <v>15.4</v>
+        <v>15.67</v>
       </c>
       <c r="L38" s="1">
-        <v>15.64</v>
+        <v>15.92</v>
       </c>
     </row>
     <row r="39" spans="1:12" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
-        <v>46935</v>
+        <v>47119</v>
       </c>
       <c r="B39" s="1">
-        <v>22.25</v>
+        <v>22.5</v>
       </c>
       <c r="C39" s="1">
-        <v>21.46</v>
+        <v>21.72</v>
       </c>
       <c r="D39" s="1">
-        <v>20.52</v>
+        <v>20.81</v>
       </c>
       <c r="E39" s="1">
-        <v>18.02</v>
+        <v>18.48</v>
       </c>
       <c r="F39" s="1">
-        <v>16.88</v>
+        <v>16.95</v>
       </c>
       <c r="G39" s="1">
-        <v>15.79</v>
+        <v>15.98</v>
       </c>
       <c r="H39" s="1">
-        <v>15.43</v>
+        <v>15.35</v>
       </c>
       <c r="I39" s="1">
-        <v>14.99</v>
+        <v>15.13</v>
       </c>
       <c r="J39" s="1">
-        <v>15.38</v>
+        <v>15.6</v>
       </c>
       <c r="K39" s="1">
-        <v>15.59</v>
+        <v>15.82</v>
       </c>
       <c r="L39" s="1">
-        <v>15.8</v>
+        <v>16.03</v>
       </c>
     </row>
     <row r="40" spans="1:12" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
-        <v>47119</v>
+        <v>47300</v>
       </c>
       <c r="B40" s="1">
-        <v>22.37</v>
+        <v>22.43</v>
       </c>
       <c r="C40" s="1">
-        <v>21.59</v>
+        <v>21.71</v>
       </c>
       <c r="D40" s="1">
-        <v>20.68</v>
+        <v>20.87</v>
       </c>
       <c r="E40" s="1">
-        <v>18.36</v>
+        <v>18.7</v>
       </c>
       <c r="F40" s="1">
-        <v>16.829999999999998</v>
+        <v>17.350000000000001</v>
       </c>
       <c r="G40" s="1">
-        <v>15.85</v>
+        <v>16.27</v>
       </c>
       <c r="H40" s="1">
-        <v>15.23</v>
+        <v>15.88</v>
       </c>
       <c r="I40" s="1">
-        <v>15.01</v>
+        <v>15.32</v>
       </c>
       <c r="J40" s="1">
-        <v>15.47</v>
+        <v>15.46</v>
       </c>
       <c r="K40" s="1">
-        <v>15.7</v>
+        <v>15.62</v>
       </c>
       <c r="L40" s="1">
-        <v>15.91</v>
+        <v>15.8</v>
       </c>
     </row>
     <row r="41" spans="1:12" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
-        <v>47300</v>
+        <v>10959</v>
       </c>
       <c r="B41" s="1">
-        <v>22.43</v>
+        <v>22.92</v>
       </c>
       <c r="C41" s="1">
-        <v>21.71</v>
+        <v>22.12</v>
       </c>
       <c r="D41" s="1">
-        <v>20.87</v>
+        <v>21.2</v>
       </c>
       <c r="E41" s="1">
-        <v>18.7</v>
+        <v>18.850000000000001</v>
       </c>
       <c r="F41" s="1">
-        <v>17.350000000000001</v>
+        <v>17.420000000000002</v>
       </c>
       <c r="G41" s="1">
-        <v>16.27</v>
+        <v>16.32</v>
       </c>
       <c r="H41" s="1">
-        <v>15.88</v>
+        <v>15.69</v>
       </c>
       <c r="I41" s="1">
-        <v>15.32</v>
+        <v>15.54</v>
       </c>
       <c r="J41" s="1">
-        <v>15.46</v>
+        <v>15.91</v>
       </c>
       <c r="K41" s="1">
-        <v>15.62</v>
+        <v>16.16</v>
       </c>
       <c r="L41" s="1">
-        <v>15.8</v>
+        <v>16.43</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="2">
-        <v>10959</v>
-      </c>
-      <c r="B42" s="1">
-        <v>22.79</v>
-      </c>
-      <c r="C42" s="1">
-        <v>22</v>
-      </c>
-      <c r="D42" s="1">
-        <v>21.07</v>
-      </c>
-      <c r="E42" s="1">
-        <v>18.72</v>
-      </c>
-      <c r="F42" s="1">
-        <v>17.18</v>
-      </c>
-      <c r="G42" s="1">
-        <v>16.190000000000001</v>
-      </c>
-      <c r="H42" s="1">
-        <v>15.57</v>
-      </c>
-      <c r="I42" s="1">
-        <v>15.33</v>
-      </c>
-      <c r="J42" s="1">
-        <v>15.78</v>
-      </c>
-      <c r="K42" s="1">
-        <v>16.04</v>
-      </c>
-      <c r="L42" s="1">
-        <v>16.309999999999999</v>
-      </c>
+      <c r="A42" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
     </row>
     <row r="43" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="2" t="s">
-        <v>34</v>
-      </c>
+      <c r="A43" s="2"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -2337,7 +2313,9 @@
       <c r="L43" s="1"/>
     </row>
     <row r="44" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="2"/>
+      <c r="A44" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -2352,7 +2330,7 @@
     </row>
     <row r="45" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -2368,7 +2346,7 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -2383,9 +2361,7 @@
       <c r="L46" s="1"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A47" s="2" t="s">
-        <v>38</v>
-      </c>
+      <c r="A47" s="2"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -2413,7 +2389,9 @@
       <c r="L48" s="1"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A49" s="2"/>
+      <c r="A49" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -2428,7 +2406,7 @@
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -2444,7 +2422,7 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -2458,22 +2436,6 @@
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A52" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
-      <c r="G52" s="1"/>
-      <c r="H52" s="1"/>
-      <c r="I52" s="1"/>
-      <c r="J52" s="1"/>
-      <c r="K52" s="1"/>
-      <c r="L52" s="1"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
